--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10101P_顧客検索応答電文_(JSON).xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10101P_顧客検索応答電文_(JSON).xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">顧客一覧!$A$1:$AL$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">顧客一覧!$A$1:$AL$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y18" authorId="0">
+    <comment ref="Y15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -1072,9 +1072,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>オブジェクト</t>
-  </si>
-  <si>
     <t>1. 外部インタフェース仕様</t>
   </si>
   <si>
@@ -1203,16 +1200,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>顧客一覧</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>顧客</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -1232,9 +1219,6 @@
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[client_list]</t>
   </si>
   <si>
     <t>[client]</t>
@@ -2019,7 +2003,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2689,6 +2673,120 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2707,15 +2805,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2752,110 +2841,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2884,15 +2883,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2921,13 +2914,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2938,6 +2931,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2947,104 +3030,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3055,20 +3123,152 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3079,9 +3279,6 @@
     <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3091,218 +3288,50 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3310,33 +3339,6 @@
     <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3352,40 +3354,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5609,13 +5584,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5665,7 +5640,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>{</a:t>
+            <a:t>[</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5679,7 +5654,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>    [</a:t>
+            <a:t>    {</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5693,7 +5668,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>        {</a:t>
+            <a:t>        "client_id": 100, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5707,21 +5682,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>            "client_id": 100, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>            "client_name": "</a:t>
+            <a:t>        "client_name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -5749,7 +5710,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>            "industry_code"</a:t>
+            <a:t>        "industry_code"</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -5782,7 +5743,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>        },</a:t>
+            <a:t>    },</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5796,7 +5757,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>        {</a:t>
+            <a:t>    {</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5810,7 +5771,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>            "client_id": 101, </a:t>
+            <a:t>        "client_id": 101, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5824,7 +5785,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>            "client_name": "</a:t>
+            <a:t>        "client_name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -5852,7 +5813,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>            "industry_code": "02"</a:t>
+            <a:t>        "industry_code": "02"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5866,7 +5827,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>        }</a:t>
+            <a:t>    }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5880,17 +5841,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>    ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>}</a:t>
+            <a:t>]</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5899,68 +5850,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1333500" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7115175" y="3914775"/>
-          <a:ext cx="1333500" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>client_list</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>104043</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91995</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27843</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="886557" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -5970,7 +5863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8247918" y="4568745"/>
+          <a:off x="7343043" y="3901995"/>
           <a:ext cx="886557" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6013,57 +5906,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>94742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>104042</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39354</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7756865" y="4215551"/>
-          <a:ext cx="516112" cy="465993"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7175,155 +7017,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="249" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="289" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="291"/>
-      <c r="S1" s="255" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="286" t="s">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="290" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="292"/>
+      <c r="AA1" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="281" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="284">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="249" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="286" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="295"/>
+      <c r="AA2" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="287" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="289"/>
+      <c r="AG2" s="284" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="298" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="286"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="255" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="297"/>
+      <c r="Y3" s="297"/>
+      <c r="Z3" s="298"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
@@ -7370,98 +7212,98 @@
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="264" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="264" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="285" t="s">
+      <c r="H7" s="269"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="264" t="s">
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="265"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="264" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="266"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="278">
+      <c r="C8" s="272"/>
+      <c r="D8" s="273">
         <v>43718</v>
       </c>
-      <c r="E8" s="279"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="276" t="s">
+      <c r="E8" s="274"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="281"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="282" t="s">
+      <c r="H8" s="276"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="282" t="s">
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="283"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="283"/>
-      <c r="X8" s="283"/>
-      <c r="Y8" s="283"/>
-      <c r="Z8" s="283"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
-      <c r="AD8" s="283"/>
-      <c r="AE8" s="284"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="279"/>
       <c r="AF8" s="131" t="s">
         <v>89</v>
       </c>
@@ -7472,36 +7314,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="168"/>
-      <c r="B9" s="267"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="274"/>
-      <c r="M9" s="274"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="274"/>
-      <c r="S9" s="274"/>
-      <c r="T9" s="274"/>
-      <c r="U9" s="274"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
-      <c r="AE9" s="275"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="128"/>
       <c r="AH9" s="128"/>
@@ -7510,36 +7352,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="267"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="274"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="274"/>
-      <c r="AA10" s="274"/>
-      <c r="AB10" s="274"/>
-      <c r="AC10" s="274"/>
-      <c r="AD10" s="274"/>
-      <c r="AE10" s="275"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="266"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
@@ -7547,36 +7389,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="267"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="274"/>
-      <c r="M11" s="274"/>
-      <c r="N11" s="274"/>
-      <c r="O11" s="274"/>
-      <c r="P11" s="275"/>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="274"/>
-      <c r="T11" s="274"/>
-      <c r="U11" s="274"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="275"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -7584,36 +7426,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="274"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="273"/>
-      <c r="R12" s="274"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="274"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="274"/>
-      <c r="Y12" s="274"/>
-      <c r="Z12" s="274"/>
-      <c r="AA12" s="274"/>
-      <c r="AB12" s="274"/>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="274"/>
-      <c r="AE12" s="275"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
@@ -7621,36 +7463,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="267"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="274"/>
-      <c r="N13" s="274"/>
-      <c r="O13" s="274"/>
-      <c r="P13" s="275"/>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="274"/>
-      <c r="S13" s="274"/>
-      <c r="T13" s="274"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="274"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="274"/>
-      <c r="Y13" s="274"/>
-      <c r="Z13" s="274"/>
-      <c r="AA13" s="274"/>
-      <c r="AB13" s="274"/>
-      <c r="AC13" s="274"/>
-      <c r="AD13" s="274"/>
-      <c r="AE13" s="275"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
@@ -8398,35 +8240,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8443,14 +8264,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -8607,158 +8449,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="320">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="299">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="321"/>
-      <c r="AI1" s="322"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="301"/>
     </row>
     <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="320" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="321"/>
-      <c r="AI2" s="322"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="301"/>
     </row>
     <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="320" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="321"/>
-      <c r="AI3" s="322"/>
+      <c r="AH3" s="300"/>
+      <c r="AI3" s="301"/>
     </row>
     <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
@@ -8843,7 +8685,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="171"/>
       <c r="B7" s="172" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="65"/>
@@ -8995,7 +8837,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="171"/>
       <c r="B11" s="180" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="171"/>
@@ -9035,7 +8877,7 @@
       <c r="A12" s="171"/>
       <c r="B12" s="180"/>
       <c r="C12" s="172" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="171"/>
       <c r="E12" s="65"/>
@@ -10191,13 +10033,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -10208,6 +10043,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -10234,158 +10076,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -10398,7 +10240,7 @@
     </row>
     <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="74"/>
       <c r="C5" s="88"/>
@@ -10473,12 +10315,12 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="333"/>
+      <c r="B7" s="333"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="334"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -10491,82 +10333,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="334" t="s">
+      <c r="Q7" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="335"/>
-      <c r="S7" s="335"/>
-      <c r="T7" s="336"/>
-      <c r="U7" s="326" t="s">
-        <v>106</v>
-      </c>
-      <c r="V7" s="327"/>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
-      <c r="AA7" s="327"/>
-      <c r="AB7" s="327"/>
-      <c r="AC7" s="327"/>
-      <c r="AD7" s="327"/>
-      <c r="AE7" s="327"/>
-      <c r="AF7" s="327"/>
-      <c r="AG7" s="327"/>
-      <c r="AH7" s="327"/>
-      <c r="AI7" s="328"/>
+      <c r="R7" s="354"/>
+      <c r="S7" s="354"/>
+      <c r="T7" s="355"/>
+      <c r="U7" s="359" t="s">
+        <v>105</v>
+      </c>
+      <c r="V7" s="360"/>
+      <c r="W7" s="360"/>
+      <c r="X7" s="360"/>
+      <c r="Y7" s="360"/>
+      <c r="Z7" s="360"/>
+      <c r="AA7" s="360"/>
+      <c r="AB7" s="360"/>
+      <c r="AC7" s="360"/>
+      <c r="AD7" s="360"/>
+      <c r="AE7" s="360"/>
+      <c r="AF7" s="360"/>
+      <c r="AG7" s="360"/>
+      <c r="AH7" s="360"/>
+      <c r="AI7" s="361"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="323" t="s">
+      <c r="A8" s="326" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="332"/>
-      <c r="D8" s="333"/>
-      <c r="E8" s="329" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
-      <c r="K8" s="330"/>
-      <c r="L8" s="330"/>
-      <c r="M8" s="330"/>
-      <c r="N8" s="330"/>
-      <c r="O8" s="330"/>
-      <c r="P8" s="330"/>
-      <c r="Q8" s="323" t="s">
+      <c r="B8" s="333"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="344" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="345"/>
+      <c r="Q8" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="332"/>
-      <c r="S8" s="332"/>
-      <c r="T8" s="333"/>
-      <c r="U8" s="329" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="330"/>
-      <c r="W8" s="330"/>
-      <c r="X8" s="330"/>
-      <c r="Y8" s="330"/>
-      <c r="Z8" s="330"/>
-      <c r="AA8" s="330"/>
-      <c r="AB8" s="330"/>
-      <c r="AC8" s="330"/>
-      <c r="AD8" s="330"/>
-      <c r="AE8" s="330"/>
-      <c r="AF8" s="330"/>
-      <c r="AG8" s="330"/>
-      <c r="AH8" s="330"/>
-      <c r="AI8" s="331"/>
+      <c r="R8" s="333"/>
+      <c r="S8" s="333"/>
+      <c r="T8" s="334"/>
+      <c r="U8" s="344" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="345"/>
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="345"/>
+      <c r="AC8" s="345"/>
+      <c r="AD8" s="345"/>
+      <c r="AE8" s="345"/>
+      <c r="AF8" s="345"/>
+      <c r="AG8" s="345"/>
+      <c r="AH8" s="345"/>
+      <c r="AI8" s="346"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="323" t="s">
+      <c r="A9" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="332"/>
-      <c r="C9" s="332"/>
-      <c r="D9" s="333"/>
+      <c r="B9" s="333"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -10602,7 +10444,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -10752,12 +10594,12 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="323" t="s">
+      <c r="A14" s="326" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="324"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="325"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="328"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -10902,12 +10744,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="347" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="339"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -10920,12 +10762,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="337" t="s">
+      <c r="Q18" s="347" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="339"/>
+      <c r="R18" s="348"/>
+      <c r="S18" s="348"/>
+      <c r="T18" s="349"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11025,55 +10867,55 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="323" t="s">
+      <c r="A21" s="326" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="333"/>
-      <c r="E21" s="329" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="330"/>
-      <c r="L21" s="330"/>
-      <c r="M21" s="330"/>
-      <c r="N21" s="330"/>
-      <c r="O21" s="330"/>
-      <c r="P21" s="331"/>
-      <c r="Q21" s="323" t="s">
+      <c r="B21" s="333"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="334"/>
+      <c r="E21" s="344" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="345"/>
+      <c r="M21" s="345"/>
+      <c r="N21" s="345"/>
+      <c r="O21" s="345"/>
+      <c r="P21" s="346"/>
+      <c r="Q21" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="332"/>
-      <c r="S21" s="332"/>
-      <c r="T21" s="333"/>
-      <c r="U21" s="340"/>
-      <c r="V21" s="341"/>
-      <c r="W21" s="341"/>
-      <c r="X21" s="341"/>
-      <c r="Y21" s="341"/>
-      <c r="Z21" s="341"/>
-      <c r="AA21" s="341"/>
-      <c r="AB21" s="341"/>
-      <c r="AC21" s="341"/>
-      <c r="AD21" s="341"/>
-      <c r="AE21" s="341"/>
-      <c r="AF21" s="341"/>
-      <c r="AG21" s="341"/>
-      <c r="AH21" s="341"/>
-      <c r="AI21" s="342"/>
+      <c r="R21" s="333"/>
+      <c r="S21" s="333"/>
+      <c r="T21" s="334"/>
+      <c r="U21" s="350"/>
+      <c r="V21" s="351"/>
+      <c r="W21" s="351"/>
+      <c r="X21" s="351"/>
+      <c r="Y21" s="351"/>
+      <c r="Z21" s="351"/>
+      <c r="AA21" s="351"/>
+      <c r="AB21" s="351"/>
+      <c r="AC21" s="351"/>
+      <c r="AD21" s="351"/>
+      <c r="AE21" s="351"/>
+      <c r="AF21" s="351"/>
+      <c r="AG21" s="351"/>
+      <c r="AH21" s="351"/>
+      <c r="AI21" s="352"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="334" t="s">
+      <c r="A22" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="335"/>
-      <c r="C22" s="335"/>
-      <c r="D22" s="336"/>
+      <c r="B22" s="354"/>
+      <c r="C22" s="354"/>
+      <c r="D22" s="355"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -11086,12 +10928,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="334" t="s">
+      <c r="Q22" s="353" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="335"/>
-      <c r="S22" s="335"/>
-      <c r="T22" s="336"/>
+      <c r="R22" s="354"/>
+      <c r="S22" s="354"/>
+      <c r="T22" s="355"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -11154,36 +10996,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="356" t="s">
+      <c r="A24" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="357"/>
-      <c r="C24" s="357"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="329" t="s">
+      <c r="B24" s="342"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="343"/>
+      <c r="E24" s="344" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
-      <c r="K24" s="330"/>
-      <c r="L24" s="330"/>
-      <c r="M24" s="330"/>
-      <c r="N24" s="330"/>
-      <c r="O24" s="330"/>
-      <c r="P24" s="331"/>
-      <c r="Q24" s="343" t="s">
+      <c r="F24" s="345"/>
+      <c r="G24" s="345"/>
+      <c r="H24" s="345"/>
+      <c r="I24" s="345"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="345"/>
+      <c r="P24" s="346"/>
+      <c r="Q24" s="356" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="344"/>
-      <c r="S24" s="344"/>
-      <c r="T24" s="345"/>
-      <c r="U24" s="348"/>
-      <c r="V24" s="349"/>
-      <c r="W24" s="349"/>
-      <c r="X24" s="349"/>
+      <c r="R24" s="357"/>
+      <c r="S24" s="357"/>
+      <c r="T24" s="358"/>
+      <c r="U24" s="331"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -11199,26 +11041,26 @@
       <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="352" t="s">
+      <c r="A25" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="353"/>
-      <c r="C25" s="353"/>
-      <c r="D25" s="354"/>
+      <c r="B25" s="338"/>
+      <c r="C25" s="338"/>
+      <c r="D25" s="339"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="346"/>
-      <c r="I25" s="347"/>
-      <c r="J25" s="347"/>
-      <c r="K25" s="347"/>
-      <c r="L25" s="347"/>
-      <c r="M25" s="347"/>
-      <c r="N25" s="347"/>
-      <c r="O25" s="347"/>
-      <c r="P25" s="347"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
+      <c r="K25" s="330"/>
+      <c r="L25" s="330"/>
+      <c r="M25" s="330"/>
+      <c r="N25" s="330"/>
+      <c r="O25" s="330"/>
+      <c r="P25" s="330"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -11227,15 +11069,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="355"/>
-      <c r="V25" s="355"/>
-      <c r="W25" s="355"/>
-      <c r="X25" s="355"/>
-      <c r="Y25" s="355"/>
-      <c r="Z25" s="355"/>
-      <c r="AA25" s="355"/>
-      <c r="AB25" s="355"/>
-      <c r="AC25" s="355"/>
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="340"/>
+      <c r="X25" s="340"/>
+      <c r="Y25" s="340"/>
+      <c r="Z25" s="340"/>
+      <c r="AA25" s="340"/>
+      <c r="AB25" s="340"/>
+      <c r="AC25" s="340"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -11255,15 +11097,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="351"/>
-      <c r="I26" s="351"/>
-      <c r="J26" s="351"/>
-      <c r="K26" s="351"/>
-      <c r="L26" s="351"/>
-      <c r="M26" s="351"/>
-      <c r="N26" s="351"/>
-      <c r="O26" s="351"/>
-      <c r="P26" s="351"/>
+      <c r="H26" s="336"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="336"/>
+      <c r="K26" s="336"/>
+      <c r="L26" s="336"/>
+      <c r="M26" s="336"/>
+      <c r="N26" s="336"/>
+      <c r="O26" s="336"/>
+      <c r="P26" s="336"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -11272,15 +11114,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="351"/>
-      <c r="V26" s="351"/>
-      <c r="W26" s="351"/>
-      <c r="X26" s="351"/>
-      <c r="Y26" s="351"/>
-      <c r="Z26" s="351"/>
-      <c r="AA26" s="351"/>
-      <c r="AB26" s="351"/>
-      <c r="AC26" s="351"/>
+      <c r="U26" s="336"/>
+      <c r="V26" s="336"/>
+      <c r="W26" s="336"/>
+      <c r="X26" s="336"/>
+      <c r="Y26" s="336"/>
+      <c r="Z26" s="336"/>
+      <c r="AA26" s="336"/>
+      <c r="AB26" s="336"/>
+      <c r="AC26" s="336"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -11300,15 +11142,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="350"/>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
+      <c r="H27" s="335"/>
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="335"/>
+      <c r="M27" s="335"/>
+      <c r="N27" s="335"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="335"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -11317,31 +11159,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="350"/>
-      <c r="V27" s="350"/>
-      <c r="W27" s="350"/>
-      <c r="X27" s="350"/>
-      <c r="Y27" s="350"/>
-      <c r="Z27" s="350"/>
-      <c r="AA27" s="350"/>
-      <c r="AB27" s="350"/>
-      <c r="AC27" s="350"/>
-      <c r="AD27" s="350"/>
-      <c r="AE27" s="350"/>
-      <c r="AF27" s="350"/>
-      <c r="AG27" s="350"/>
-      <c r="AH27" s="350"/>
+      <c r="U27" s="335"/>
+      <c r="V27" s="335"/>
+      <c r="W27" s="335"/>
+      <c r="X27" s="335"/>
+      <c r="Y27" s="335"/>
+      <c r="Z27" s="335"/>
+      <c r="AA27" s="335"/>
+      <c r="AB27" s="335"/>
+      <c r="AC27" s="335"/>
+      <c r="AD27" s="335"/>
+      <c r="AE27" s="335"/>
+      <c r="AF27" s="335"/>
+      <c r="AG27" s="335"/>
+      <c r="AH27" s="335"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="323" t="s">
+      <c r="A28" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="324"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="325"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="328"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -11487,23 +11329,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11518,21 +11358,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12207,158 +12049,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="91"/>
@@ -12518,463 +12360,463 @@
       <c r="AU7" s="74"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="380" t="s">
+      <c r="A8" s="428" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="381"/>
-      <c r="C8" s="381"/>
-      <c r="D8" s="381"/>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
-      <c r="Q8" s="381"/>
-      <c r="R8" s="381"/>
-      <c r="S8" s="381"/>
-      <c r="T8" s="381"/>
-      <c r="U8" s="381"/>
-      <c r="V8" s="381"/>
-      <c r="W8" s="381"/>
-      <c r="X8" s="381"/>
-      <c r="Y8" s="381"/>
-      <c r="Z8" s="381"/>
-      <c r="AA8" s="381"/>
-      <c r="AB8" s="382"/>
-      <c r="AC8" s="446" t="s">
+      <c r="B8" s="378"/>
+      <c r="C8" s="378"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="378"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="378"/>
+      <c r="J8" s="378"/>
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="378"/>
+      <c r="N8" s="378"/>
+      <c r="O8" s="378"/>
+      <c r="P8" s="378"/>
+      <c r="Q8" s="378"/>
+      <c r="R8" s="378"/>
+      <c r="S8" s="378"/>
+      <c r="T8" s="378"/>
+      <c r="U8" s="378"/>
+      <c r="V8" s="378"/>
+      <c r="W8" s="378"/>
+      <c r="X8" s="378"/>
+      <c r="Y8" s="378"/>
+      <c r="Z8" s="378"/>
+      <c r="AA8" s="378"/>
+      <c r="AB8" s="429"/>
+      <c r="AC8" s="377" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="381"/>
-      <c r="AE8" s="447"/>
-      <c r="AF8" s="443"/>
-      <c r="AG8" s="444"/>
-      <c r="AH8" s="444"/>
-      <c r="AI8" s="445"/>
+      <c r="AD8" s="378"/>
+      <c r="AE8" s="379"/>
+      <c r="AF8" s="374"/>
+      <c r="AG8" s="375"/>
+      <c r="AH8" s="375"/>
+      <c r="AI8" s="376"/>
     </row>
     <row r="9" spans="1:47" s="238" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="365" t="s">
+      <c r="B9" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="274"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="365" t="s">
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="366"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="365" t="s">
+      <c r="H9" s="425"/>
+      <c r="I9" s="427"/>
+      <c r="J9" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366"/>
-      <c r="M9" s="366"/>
-      <c r="N9" s="366"/>
-      <c r="O9" s="366"/>
-      <c r="P9" s="367"/>
-      <c r="Q9" s="370" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="372"/>
-      <c r="S9" s="370" t="s">
+      <c r="K9" s="425"/>
+      <c r="L9" s="425"/>
+      <c r="M9" s="425"/>
+      <c r="N9" s="425"/>
+      <c r="O9" s="425"/>
+      <c r="P9" s="427"/>
+      <c r="Q9" s="442" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="444"/>
+      <c r="S9" s="442" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="371"/>
-      <c r="U9" s="372"/>
-      <c r="V9" s="365" t="s">
+      <c r="T9" s="443"/>
+      <c r="U9" s="444"/>
+      <c r="V9" s="424" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="366"/>
-      <c r="X9" s="366"/>
-      <c r="Y9" s="366"/>
-      <c r="Z9" s="366"/>
-      <c r="AA9" s="366"/>
-      <c r="AB9" s="379"/>
-      <c r="AC9" s="391" t="s">
+      <c r="W9" s="425"/>
+      <c r="X9" s="425"/>
+      <c r="Y9" s="425"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="425"/>
+      <c r="AB9" s="426"/>
+      <c r="AC9" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="392"/>
-      <c r="AE9" s="392"/>
-      <c r="AF9" s="392"/>
-      <c r="AG9" s="392"/>
-      <c r="AH9" s="393" t="s">
+      <c r="AD9" s="437"/>
+      <c r="AE9" s="437"/>
+      <c r="AF9" s="437"/>
+      <c r="AG9" s="437"/>
+      <c r="AH9" s="438" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="393"/>
+      <c r="AI9" s="438"/>
     </row>
     <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="430" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="431"/>
-      <c r="D10" s="431"/>
-      <c r="E10" s="431"/>
-      <c r="F10" s="432"/>
-      <c r="G10" s="388"/>
-      <c r="H10" s="389"/>
-      <c r="I10" s="390"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="375"/>
-      <c r="L10" s="375"/>
-      <c r="M10" s="375"/>
-      <c r="N10" s="375"/>
-      <c r="O10" s="375"/>
-      <c r="P10" s="376"/>
-      <c r="Q10" s="386"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="386"/>
-      <c r="T10" s="433"/>
-      <c r="U10" s="387"/>
-      <c r="V10" s="394"/>
-      <c r="W10" s="395"/>
-      <c r="X10" s="395"/>
-      <c r="Y10" s="395"/>
-      <c r="Z10" s="395"/>
-      <c r="AA10" s="395"/>
-      <c r="AB10" s="396"/>
-      <c r="AC10" s="425" t="s">
+      <c r="B10" s="387" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="434"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="445"/>
+      <c r="K10" s="446"/>
+      <c r="L10" s="446"/>
+      <c r="M10" s="446"/>
+      <c r="N10" s="446"/>
+      <c r="O10" s="446"/>
+      <c r="P10" s="447"/>
+      <c r="Q10" s="396"/>
+      <c r="R10" s="398"/>
+      <c r="S10" s="396"/>
+      <c r="T10" s="397"/>
+      <c r="U10" s="398"/>
+      <c r="V10" s="439"/>
+      <c r="W10" s="440"/>
+      <c r="X10" s="440"/>
+      <c r="Y10" s="440"/>
+      <c r="Z10" s="440"/>
+      <c r="AA10" s="440"/>
+      <c r="AB10" s="441"/>
+      <c r="AC10" s="421" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="437"/>
-      <c r="AE10" s="438"/>
-      <c r="AF10" s="438"/>
-      <c r="AG10" s="439"/>
-      <c r="AH10" s="428"/>
-      <c r="AI10" s="429"/>
+      <c r="AD10" s="365"/>
+      <c r="AE10" s="366"/>
+      <c r="AF10" s="366"/>
+      <c r="AG10" s="367"/>
+      <c r="AH10" s="385"/>
+      <c r="AI10" s="386"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="363"/>
-      <c r="F11" s="364"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="384"/>
-      <c r="I11" s="385"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="363"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
-      <c r="O11" s="363"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="368"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="368"/>
-      <c r="T11" s="373"/>
-      <c r="U11" s="369"/>
-      <c r="V11" s="397"/>
-      <c r="W11" s="398"/>
-      <c r="X11" s="398"/>
-      <c r="Y11" s="398"/>
-      <c r="Z11" s="398"/>
-      <c r="AA11" s="398"/>
-      <c r="AB11" s="399"/>
-      <c r="AC11" s="426"/>
-      <c r="AD11" s="440"/>
-      <c r="AE11" s="441"/>
-      <c r="AF11" s="441"/>
-      <c r="AG11" s="442"/>
-      <c r="AH11" s="377"/>
-      <c r="AI11" s="378"/>
+      <c r="B11" s="390"/>
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="392"/>
+      <c r="G11" s="430"/>
+      <c r="H11" s="431"/>
+      <c r="I11" s="432"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="391"/>
+      <c r="L11" s="391"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="391"/>
+      <c r="O11" s="391"/>
+      <c r="P11" s="392"/>
+      <c r="Q11" s="399"/>
+      <c r="R11" s="401"/>
+      <c r="S11" s="399"/>
+      <c r="T11" s="400"/>
+      <c r="U11" s="401"/>
+      <c r="V11" s="382"/>
+      <c r="W11" s="383"/>
+      <c r="X11" s="383"/>
+      <c r="Y11" s="383"/>
+      <c r="Z11" s="383"/>
+      <c r="AA11" s="383"/>
+      <c r="AB11" s="384"/>
+      <c r="AC11" s="422"/>
+      <c r="AD11" s="368"/>
+      <c r="AE11" s="369"/>
+      <c r="AF11" s="369"/>
+      <c r="AG11" s="370"/>
+      <c r="AH11" s="380"/>
+      <c r="AI11" s="381"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="362"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="364"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="384"/>
-      <c r="I12" s="385"/>
-      <c r="J12" s="362"/>
-      <c r="K12" s="363"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="368"/>
-      <c r="R12" s="369"/>
-      <c r="S12" s="368"/>
-      <c r="T12" s="373"/>
-      <c r="U12" s="369"/>
-      <c r="V12" s="397"/>
-      <c r="W12" s="398"/>
-      <c r="X12" s="398"/>
-      <c r="Y12" s="398"/>
-      <c r="Z12" s="398"/>
-      <c r="AA12" s="398"/>
-      <c r="AB12" s="399"/>
-      <c r="AC12" s="426"/>
-      <c r="AD12" s="400"/>
-      <c r="AE12" s="401"/>
-      <c r="AF12" s="401"/>
-      <c r="AG12" s="402"/>
-      <c r="AH12" s="377"/>
-      <c r="AI12" s="378"/>
+      <c r="B12" s="390"/>
+      <c r="C12" s="391"/>
+      <c r="D12" s="391"/>
+      <c r="E12" s="391"/>
+      <c r="F12" s="392"/>
+      <c r="G12" s="430"/>
+      <c r="H12" s="431"/>
+      <c r="I12" s="432"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="391"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="391"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="392"/>
+      <c r="Q12" s="399"/>
+      <c r="R12" s="401"/>
+      <c r="S12" s="399"/>
+      <c r="T12" s="400"/>
+      <c r="U12" s="401"/>
+      <c r="V12" s="382"/>
+      <c r="W12" s="383"/>
+      <c r="X12" s="383"/>
+      <c r="Y12" s="383"/>
+      <c r="Z12" s="383"/>
+      <c r="AA12" s="383"/>
+      <c r="AB12" s="384"/>
+      <c r="AC12" s="422"/>
+      <c r="AD12" s="371"/>
+      <c r="AE12" s="372"/>
+      <c r="AF12" s="372"/>
+      <c r="AG12" s="373"/>
+      <c r="AH12" s="380"/>
+      <c r="AI12" s="381"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="362"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="364"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="385"/>
-      <c r="J13" s="362"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="363"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="364"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="369"/>
-      <c r="S13" s="368"/>
-      <c r="T13" s="373"/>
-      <c r="U13" s="369"/>
-      <c r="V13" s="397"/>
-      <c r="W13" s="398"/>
-      <c r="X13" s="398"/>
-      <c r="Y13" s="398"/>
-      <c r="Z13" s="398"/>
-      <c r="AA13" s="398"/>
-      <c r="AB13" s="399"/>
-      <c r="AC13" s="426"/>
-      <c r="AD13" s="400"/>
-      <c r="AE13" s="401"/>
-      <c r="AF13" s="401"/>
-      <c r="AG13" s="402"/>
-      <c r="AH13" s="377"/>
-      <c r="AI13" s="378"/>
+      <c r="B13" s="390"/>
+      <c r="C13" s="391"/>
+      <c r="D13" s="391"/>
+      <c r="E13" s="391"/>
+      <c r="F13" s="392"/>
+      <c r="G13" s="430"/>
+      <c r="H13" s="431"/>
+      <c r="I13" s="432"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="391"/>
+      <c r="L13" s="391"/>
+      <c r="M13" s="391"/>
+      <c r="N13" s="391"/>
+      <c r="O13" s="391"/>
+      <c r="P13" s="392"/>
+      <c r="Q13" s="399"/>
+      <c r="R13" s="401"/>
+      <c r="S13" s="399"/>
+      <c r="T13" s="400"/>
+      <c r="U13" s="401"/>
+      <c r="V13" s="382"/>
+      <c r="W13" s="383"/>
+      <c r="X13" s="383"/>
+      <c r="Y13" s="383"/>
+      <c r="Z13" s="383"/>
+      <c r="AA13" s="383"/>
+      <c r="AB13" s="384"/>
+      <c r="AC13" s="422"/>
+      <c r="AD13" s="371"/>
+      <c r="AE13" s="372"/>
+      <c r="AF13" s="372"/>
+      <c r="AG13" s="373"/>
+      <c r="AH13" s="380"/>
+      <c r="AI13" s="381"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="417"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="418"/>
-      <c r="E14" s="418"/>
-      <c r="F14" s="419"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="363"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="362"/>
-      <c r="K14" s="363"/>
-      <c r="L14" s="363"/>
-      <c r="M14" s="363"/>
-      <c r="N14" s="363"/>
-      <c r="O14" s="363"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="368"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="368"/>
-      <c r="T14" s="373"/>
-      <c r="U14" s="369"/>
-      <c r="V14" s="397"/>
-      <c r="W14" s="398"/>
-      <c r="X14" s="398"/>
-      <c r="Y14" s="398"/>
-      <c r="Z14" s="398"/>
-      <c r="AA14" s="398"/>
-      <c r="AB14" s="399"/>
-      <c r="AC14" s="426"/>
-      <c r="AD14" s="400"/>
-      <c r="AE14" s="401"/>
-      <c r="AF14" s="401"/>
-      <c r="AG14" s="402"/>
-      <c r="AH14" s="377"/>
-      <c r="AI14" s="378"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="395"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="391"/>
+      <c r="I14" s="392"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="391"/>
+      <c r="L14" s="391"/>
+      <c r="M14" s="391"/>
+      <c r="N14" s="391"/>
+      <c r="O14" s="391"/>
+      <c r="P14" s="392"/>
+      <c r="Q14" s="399"/>
+      <c r="R14" s="401"/>
+      <c r="S14" s="399"/>
+      <c r="T14" s="400"/>
+      <c r="U14" s="401"/>
+      <c r="V14" s="382"/>
+      <c r="W14" s="383"/>
+      <c r="X14" s="383"/>
+      <c r="Y14" s="383"/>
+      <c r="Z14" s="383"/>
+      <c r="AA14" s="383"/>
+      <c r="AB14" s="384"/>
+      <c r="AC14" s="422"/>
+      <c r="AD14" s="371"/>
+      <c r="AE14" s="372"/>
+      <c r="AF14" s="372"/>
+      <c r="AG14" s="373"/>
+      <c r="AH14" s="380"/>
+      <c r="AI14" s="381"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="417"/>
-      <c r="C15" s="418"/>
-      <c r="D15" s="418"/>
-      <c r="E15" s="418"/>
-      <c r="F15" s="419"/>
-      <c r="G15" s="362"/>
-      <c r="H15" s="363"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="362"/>
-      <c r="K15" s="363"/>
-      <c r="L15" s="363"/>
-      <c r="M15" s="363"/>
-      <c r="N15" s="363"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="368"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="368"/>
-      <c r="T15" s="373"/>
-      <c r="U15" s="369"/>
-      <c r="V15" s="397"/>
-      <c r="W15" s="398"/>
-      <c r="X15" s="398"/>
-      <c r="Y15" s="398"/>
-      <c r="Z15" s="398"/>
-      <c r="AA15" s="398"/>
-      <c r="AB15" s="399"/>
-      <c r="AC15" s="426"/>
-      <c r="AD15" s="400"/>
-      <c r="AE15" s="401"/>
-      <c r="AF15" s="401"/>
-      <c r="AG15" s="402"/>
-      <c r="AH15" s="377"/>
-      <c r="AI15" s="378"/>
+      <c r="B15" s="393"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="391"/>
+      <c r="L15" s="391"/>
+      <c r="M15" s="391"/>
+      <c r="N15" s="391"/>
+      <c r="O15" s="391"/>
+      <c r="P15" s="392"/>
+      <c r="Q15" s="399"/>
+      <c r="R15" s="401"/>
+      <c r="S15" s="399"/>
+      <c r="T15" s="400"/>
+      <c r="U15" s="401"/>
+      <c r="V15" s="382"/>
+      <c r="W15" s="383"/>
+      <c r="X15" s="383"/>
+      <c r="Y15" s="383"/>
+      <c r="Z15" s="383"/>
+      <c r="AA15" s="383"/>
+      <c r="AB15" s="384"/>
+      <c r="AC15" s="422"/>
+      <c r="AD15" s="371"/>
+      <c r="AE15" s="372"/>
+      <c r="AF15" s="372"/>
+      <c r="AG15" s="373"/>
+      <c r="AH15" s="380"/>
+      <c r="AI15" s="381"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="417"/>
-      <c r="C16" s="418"/>
-      <c r="D16" s="418"/>
-      <c r="E16" s="418"/>
-      <c r="F16" s="419"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="363"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="362"/>
-      <c r="K16" s="363"/>
-      <c r="L16" s="363"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="363"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="364"/>
-      <c r="Q16" s="368"/>
-      <c r="R16" s="369"/>
-      <c r="S16" s="368"/>
-      <c r="T16" s="373"/>
-      <c r="U16" s="369"/>
-      <c r="V16" s="397"/>
-      <c r="W16" s="398"/>
-      <c r="X16" s="398"/>
-      <c r="Y16" s="398"/>
-      <c r="Z16" s="398"/>
-      <c r="AA16" s="398"/>
-      <c r="AB16" s="399"/>
-      <c r="AC16" s="426"/>
-      <c r="AD16" s="400"/>
-      <c r="AE16" s="401"/>
-      <c r="AF16" s="401"/>
-      <c r="AG16" s="402"/>
-      <c r="AH16" s="377"/>
-      <c r="AI16" s="378"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="390"/>
+      <c r="H16" s="391"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="391"/>
+      <c r="L16" s="391"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="391"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="392"/>
+      <c r="Q16" s="399"/>
+      <c r="R16" s="401"/>
+      <c r="S16" s="399"/>
+      <c r="T16" s="400"/>
+      <c r="U16" s="401"/>
+      <c r="V16" s="382"/>
+      <c r="W16" s="383"/>
+      <c r="X16" s="383"/>
+      <c r="Y16" s="383"/>
+      <c r="Z16" s="383"/>
+      <c r="AA16" s="383"/>
+      <c r="AB16" s="384"/>
+      <c r="AC16" s="422"/>
+      <c r="AD16" s="371"/>
+      <c r="AE16" s="372"/>
+      <c r="AF16" s="372"/>
+      <c r="AG16" s="373"/>
+      <c r="AH16" s="380"/>
+      <c r="AI16" s="381"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="417"/>
-      <c r="C17" s="418"/>
-      <c r="D17" s="418"/>
-      <c r="E17" s="418"/>
-      <c r="F17" s="419"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="362"/>
-      <c r="K17" s="363"/>
-      <c r="L17" s="363"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="363"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="364"/>
-      <c r="Q17" s="368"/>
-      <c r="R17" s="369"/>
-      <c r="S17" s="368"/>
-      <c r="T17" s="373"/>
-      <c r="U17" s="369"/>
-      <c r="V17" s="397"/>
-      <c r="W17" s="398"/>
-      <c r="X17" s="398"/>
-      <c r="Y17" s="398"/>
-      <c r="Z17" s="398"/>
-      <c r="AA17" s="398"/>
-      <c r="AB17" s="399"/>
-      <c r="AC17" s="426"/>
-      <c r="AD17" s="400"/>
-      <c r="AE17" s="401"/>
-      <c r="AF17" s="401"/>
-      <c r="AG17" s="402"/>
-      <c r="AH17" s="377"/>
-      <c r="AI17" s="378"/>
+      <c r="B17" s="393"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="391"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="391"/>
+      <c r="M17" s="391"/>
+      <c r="N17" s="391"/>
+      <c r="O17" s="391"/>
+      <c r="P17" s="392"/>
+      <c r="Q17" s="399"/>
+      <c r="R17" s="401"/>
+      <c r="S17" s="399"/>
+      <c r="T17" s="400"/>
+      <c r="U17" s="401"/>
+      <c r="V17" s="382"/>
+      <c r="W17" s="383"/>
+      <c r="X17" s="383"/>
+      <c r="Y17" s="383"/>
+      <c r="Z17" s="383"/>
+      <c r="AA17" s="383"/>
+      <c r="AB17" s="384"/>
+      <c r="AC17" s="422"/>
+      <c r="AD17" s="371"/>
+      <c r="AE17" s="372"/>
+      <c r="AF17" s="372"/>
+      <c r="AG17" s="373"/>
+      <c r="AH17" s="380"/>
+      <c r="AI17" s="381"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="420"/>
-      <c r="C18" s="421"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="421"/>
-      <c r="F18" s="422"/>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="416"/>
-      <c r="J18" s="414"/>
-      <c r="K18" s="415"/>
-      <c r="L18" s="415"/>
-      <c r="M18" s="415"/>
-      <c r="N18" s="415"/>
-      <c r="O18" s="415"/>
-      <c r="P18" s="416"/>
-      <c r="Q18" s="411"/>
-      <c r="R18" s="413"/>
-      <c r="S18" s="411"/>
-      <c r="T18" s="412"/>
-      <c r="U18" s="413"/>
-      <c r="V18" s="406"/>
-      <c r="W18" s="407"/>
-      <c r="X18" s="407"/>
-      <c r="Y18" s="407"/>
-      <c r="Z18" s="407"/>
-      <c r="AA18" s="407"/>
-      <c r="AB18" s="408"/>
-      <c r="AC18" s="427"/>
-      <c r="AD18" s="434"/>
-      <c r="AE18" s="435"/>
-      <c r="AF18" s="435"/>
-      <c r="AG18" s="436"/>
-      <c r="AH18" s="423"/>
-      <c r="AI18" s="424"/>
+      <c r="B18" s="416"/>
+      <c r="C18" s="417"/>
+      <c r="D18" s="417"/>
+      <c r="E18" s="417"/>
+      <c r="F18" s="418"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="414"/>
+      <c r="I18" s="415"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="414"/>
+      <c r="L18" s="414"/>
+      <c r="M18" s="414"/>
+      <c r="N18" s="414"/>
+      <c r="O18" s="414"/>
+      <c r="P18" s="415"/>
+      <c r="Q18" s="410"/>
+      <c r="R18" s="412"/>
+      <c r="S18" s="410"/>
+      <c r="T18" s="411"/>
+      <c r="U18" s="412"/>
+      <c r="V18" s="405"/>
+      <c r="W18" s="406"/>
+      <c r="X18" s="406"/>
+      <c r="Y18" s="406"/>
+      <c r="Z18" s="406"/>
+      <c r="AA18" s="406"/>
+      <c r="AB18" s="407"/>
+      <c r="AC18" s="423"/>
+      <c r="AD18" s="362"/>
+      <c r="AE18" s="363"/>
+      <c r="AF18" s="363"/>
+      <c r="AG18" s="364"/>
+      <c r="AH18" s="419"/>
+      <c r="AI18" s="420"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="409"/>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="410"/>
-      <c r="E19" s="410"/>
-      <c r="F19" s="410"/>
+      <c r="A19" s="408"/>
+      <c r="B19" s="409"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="409"/>
+      <c r="F19" s="409"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -12998,23 +12840,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="405"/>
-      <c r="AE19" s="405"/>
-      <c r="AF19" s="405"/>
-      <c r="AG19" s="405"/>
-      <c r="AH19" s="405"/>
+      <c r="AD19" s="404"/>
+      <c r="AE19" s="404"/>
+      <c r="AF19" s="404"/>
+      <c r="AG19" s="404"/>
+      <c r="AH19" s="404"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="402" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="404"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="404"/>
+      <c r="B20" s="403"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -13561,6 +13403,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -13585,86 +13507,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -13690,7 +13532,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CR35"/>
+  <dimension ref="A1:CR32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -13704,163 +13546,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="314" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="359">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="361"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="359" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="360"/>
-      <c r="AI2" s="361"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="359" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="360"/>
-      <c r="AI3" s="361"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1"/>
     <row r="5" spans="1:96" ht="15" customHeight="1">
       <c r="A5" s="239" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -13901,60 +13743,60 @@
       <c r="A7" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="469" t="s">
+      <c r="B7" s="460" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="470"/>
-      <c r="D7" s="470"/>
-      <c r="E7" s="470"/>
-      <c r="F7" s="471"/>
-      <c r="G7" s="469" t="s">
+      <c r="C7" s="461"/>
+      <c r="D7" s="461"/>
+      <c r="E7" s="461"/>
+      <c r="F7" s="462"/>
+      <c r="G7" s="460" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="470"/>
-      <c r="I7" s="470"/>
-      <c r="J7" s="470"/>
-      <c r="K7" s="471"/>
-      <c r="L7" s="469" t="s">
+      <c r="H7" s="461"/>
+      <c r="I7" s="461"/>
+      <c r="J7" s="461"/>
+      <c r="K7" s="462"/>
+      <c r="L7" s="460" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="470"/>
-      <c r="N7" s="470"/>
-      <c r="O7" s="470"/>
-      <c r="P7" s="471"/>
+      <c r="M7" s="461"/>
+      <c r="N7" s="461"/>
+      <c r="O7" s="461"/>
+      <c r="P7" s="462"/>
       <c r="Q7" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="463" t="s">
+      <c r="R7" s="469" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="463"/>
-      <c r="T7" s="463"/>
-      <c r="U7" s="463"/>
-      <c r="V7" s="465" t="s">
+      <c r="S7" s="469"/>
+      <c r="T7" s="469"/>
+      <c r="U7" s="469"/>
+      <c r="V7" s="470" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="466"/>
-      <c r="X7" s="465" t="s">
+      <c r="W7" s="471"/>
+      <c r="X7" s="470" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="466"/>
-      <c r="Z7" s="469" t="s">
+      <c r="Y7" s="471"/>
+      <c r="Z7" s="460" t="s">
         <v>59</v>
       </c>
-      <c r="AA7" s="470"/>
-      <c r="AB7" s="471"/>
-      <c r="AC7" s="469" t="s">
+      <c r="AA7" s="461"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="460" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="470"/>
-      <c r="AE7" s="470"/>
-      <c r="AF7" s="470"/>
-      <c r="AG7" s="470"/>
-      <c r="AH7" s="470"/>
-      <c r="AI7" s="470"/>
-      <c r="AJ7" s="470"/>
-      <c r="AK7" s="471"/>
+      <c r="AD7" s="461"/>
+      <c r="AE7" s="461"/>
+      <c r="AF7" s="461"/>
+      <c r="AG7" s="461"/>
+      <c r="AH7" s="461"/>
+      <c r="AI7" s="461"/>
+      <c r="AJ7" s="461"/>
+      <c r="AK7" s="462"/>
       <c r="AL7" s="75"/>
       <c r="AM7" s="75"/>
       <c r="AN7" s="75"/>
@@ -14014,36 +13856,36 @@
       <c r="A8" s="168">
         <v>1</v>
       </c>
-      <c r="B8" s="453" t="s">
-        <v>113</v>
+      <c r="B8" s="456" t="s">
+        <v>112</v>
       </c>
       <c r="C8" s="451"/>
       <c r="D8" s="451"/>
       <c r="E8" s="451"/>
       <c r="F8" s="452"/>
-      <c r="G8" s="472" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="473"/>
-      <c r="I8" s="473"/>
-      <c r="J8" s="473"/>
-      <c r="K8" s="473"/>
-      <c r="L8" s="450"/>
+      <c r="G8" s="453" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="454"/>
+      <c r="I8" s="454"/>
+      <c r="J8" s="454"/>
+      <c r="K8" s="455"/>
+      <c r="L8" s="456"/>
       <c r="M8" s="451"/>
       <c r="N8" s="451"/>
       <c r="O8" s="451"/>
       <c r="P8" s="452"/>
-      <c r="Q8" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="464"/>
-      <c r="S8" s="464"/>
-      <c r="T8" s="464"/>
-      <c r="U8" s="464"/>
-      <c r="V8" s="457"/>
-      <c r="W8" s="458"/>
-      <c r="X8" s="467"/>
-      <c r="Y8" s="468"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="450"/>
+      <c r="S8" s="451"/>
+      <c r="T8" s="451"/>
+      <c r="U8" s="452"/>
+      <c r="V8" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" s="449"/>
+      <c r="X8" s="463"/>
+      <c r="Y8" s="464"/>
       <c r="Z8" s="450"/>
       <c r="AA8" s="451"/>
       <c r="AB8" s="452"/>
@@ -14056,17 +13898,17 @@
       <c r="AI8" s="451"/>
       <c r="AJ8" s="451"/>
       <c r="AK8" s="452"/>
-      <c r="AL8" s="202"/>
-      <c r="AM8" s="202"/>
-      <c r="AN8" s="202"/>
-      <c r="AP8" s="202"/>
-      <c r="AQ8" s="202"/>
-      <c r="AR8" s="202"/>
-      <c r="AS8" s="202"/>
-      <c r="AT8" s="202"/>
-      <c r="AU8" s="202"/>
-      <c r="AV8" s="202"/>
-      <c r="AW8" s="202"/>
+      <c r="AL8" s="240"/>
+      <c r="AM8" s="240"/>
+      <c r="AN8" s="240"/>
+      <c r="AP8" s="240"/>
+      <c r="AQ8" s="240"/>
+      <c r="AR8" s="240"/>
+      <c r="AS8" s="240"/>
+      <c r="AT8" s="240"/>
+      <c r="AU8" s="240"/>
+      <c r="AV8" s="240"/>
+      <c r="AW8" s="240"/>
       <c r="AX8" s="75"/>
       <c r="AY8" s="75"/>
       <c r="AZ8" s="75"/>
@@ -14098,54 +13940,58 @@
       <c r="BZ8" s="75"/>
       <c r="CA8" s="75"/>
       <c r="CB8" s="75"/>
-      <c r="CC8" s="202"/>
-      <c r="CD8" s="202"/>
-      <c r="CE8" s="202"/>
-      <c r="CF8" s="202"/>
-      <c r="CG8" s="202"/>
-      <c r="CH8" s="202"/>
-      <c r="CI8" s="202"/>
-      <c r="CJ8" s="202"/>
-      <c r="CK8" s="202"/>
-      <c r="CL8" s="202"/>
-      <c r="CM8" s="202"/>
+      <c r="CC8" s="240"/>
+      <c r="CD8" s="240"/>
+      <c r="CE8" s="240"/>
+      <c r="CF8" s="240"/>
+      <c r="CG8" s="240"/>
+      <c r="CH8" s="240"/>
+      <c r="CI8" s="240"/>
+      <c r="CJ8" s="240"/>
+      <c r="CK8" s="240"/>
+      <c r="CL8" s="240"/>
+      <c r="CM8" s="240"/>
     </row>
     <row r="9" spans="1:96" ht="15" customHeight="1">
       <c r="A9" s="168">
         <v>2</v>
       </c>
-      <c r="B9" s="453" t="s">
-        <v>114</v>
+      <c r="B9" s="456" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="451"/>
       <c r="D9" s="451"/>
       <c r="E9" s="451"/>
       <c r="F9" s="452"/>
-      <c r="G9" s="454" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="455"/>
-      <c r="I9" s="455"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="456"/>
-      <c r="L9" s="453"/>
+      <c r="G9" s="453" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="454"/>
+      <c r="I9" s="454"/>
+      <c r="J9" s="454"/>
+      <c r="K9" s="455"/>
+      <c r="L9" s="456" t="s">
+        <v>99</v>
+      </c>
       <c r="M9" s="451"/>
       <c r="N9" s="451"/>
       <c r="O9" s="451"/>
       <c r="P9" s="452"/>
-      <c r="Q9" s="211"/>
+      <c r="Q9" s="211" t="s">
+        <v>84</v>
+      </c>
       <c r="R9" s="450" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="S9" s="451"/>
       <c r="T9" s="451"/>
       <c r="U9" s="452"/>
-      <c r="V9" s="457" t="s">
-        <v>104</v>
-      </c>
-      <c r="W9" s="458"/>
-      <c r="X9" s="448"/>
-      <c r="Y9" s="449"/>
+      <c r="V9" s="448">
+        <v>1</v>
+      </c>
+      <c r="W9" s="449"/>
+      <c r="X9" s="463"/>
+      <c r="Y9" s="464"/>
       <c r="Z9" s="450"/>
       <c r="AA9" s="451"/>
       <c r="AB9" s="452"/>
@@ -14158,17 +14004,17 @@
       <c r="AI9" s="451"/>
       <c r="AJ9" s="451"/>
       <c r="AK9" s="452"/>
-      <c r="AL9" s="240"/>
-      <c r="AM9" s="240"/>
-      <c r="AN9" s="240"/>
-      <c r="AP9" s="240"/>
-      <c r="AQ9" s="240"/>
-      <c r="AR9" s="240"/>
-      <c r="AS9" s="240"/>
-      <c r="AT9" s="240"/>
-      <c r="AU9" s="240"/>
-      <c r="AV9" s="240"/>
-      <c r="AW9" s="240"/>
+      <c r="AL9" s="202"/>
+      <c r="AM9" s="202"/>
+      <c r="AN9" s="202"/>
+      <c r="AP9" s="202"/>
+      <c r="AQ9" s="202"/>
+      <c r="AR9" s="202"/>
+      <c r="AS9" s="202"/>
+      <c r="AT9" s="202"/>
+      <c r="AU9" s="202"/>
+      <c r="AV9" s="202"/>
+      <c r="AW9" s="202"/>
       <c r="AX9" s="75"/>
       <c r="AY9" s="75"/>
       <c r="AZ9" s="75"/>
@@ -14200,37 +14046,37 @@
       <c r="BZ9" s="75"/>
       <c r="CA9" s="75"/>
       <c r="CB9" s="75"/>
-      <c r="CC9" s="240"/>
-      <c r="CD9" s="240"/>
-      <c r="CE9" s="240"/>
-      <c r="CF9" s="240"/>
-      <c r="CG9" s="240"/>
-      <c r="CH9" s="240"/>
-      <c r="CI9" s="240"/>
-      <c r="CJ9" s="240"/>
-      <c r="CK9" s="240"/>
-      <c r="CL9" s="240"/>
-      <c r="CM9" s="240"/>
+      <c r="CC9" s="202"/>
+      <c r="CD9" s="202"/>
+      <c r="CE9" s="202"/>
+      <c r="CF9" s="202"/>
+      <c r="CG9" s="202"/>
+      <c r="CH9" s="202"/>
+      <c r="CI9" s="202"/>
+      <c r="CJ9" s="202"/>
+      <c r="CK9" s="202"/>
+      <c r="CL9" s="202"/>
+      <c r="CM9" s="202"/>
     </row>
     <row r="10" spans="1:96" ht="15" customHeight="1">
       <c r="A10" s="168">
         <v>3</v>
       </c>
-      <c r="B10" s="453" t="s">
+      <c r="B10" s="456" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="451"/>
       <c r="D10" s="451"/>
       <c r="E10" s="451"/>
       <c r="F10" s="452"/>
-      <c r="G10" s="454" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="455"/>
-      <c r="I10" s="455"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="453" t="s">
+      <c r="G10" s="453" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="454"/>
+      <c r="I10" s="454"/>
+      <c r="J10" s="454"/>
+      <c r="K10" s="455"/>
+      <c r="L10" s="456" t="s">
         <v>100</v>
       </c>
       <c r="M10" s="451"/>
@@ -14241,17 +14087,17 @@
         <v>84</v>
       </c>
       <c r="R10" s="450" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S10" s="451"/>
       <c r="T10" s="451"/>
       <c r="U10" s="452"/>
-      <c r="V10" s="475">
+      <c r="V10" s="448">
         <v>1</v>
       </c>
-      <c r="W10" s="458"/>
-      <c r="X10" s="448"/>
-      <c r="Y10" s="449"/>
+      <c r="W10" s="449"/>
+      <c r="X10" s="457"/>
+      <c r="Y10" s="459"/>
       <c r="Z10" s="450"/>
       <c r="AA10" s="451"/>
       <c r="AB10" s="452"/>
@@ -14322,21 +14168,21 @@
       <c r="A11" s="168">
         <v>4</v>
       </c>
-      <c r="B11" s="453" t="s">
+      <c r="B11" s="456" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="451"/>
       <c r="D11" s="451"/>
       <c r="E11" s="451"/>
       <c r="F11" s="452"/>
-      <c r="G11" s="454" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="455"/>
-      <c r="I11" s="455"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="456"/>
-      <c r="L11" s="453" t="s">
+      <c r="G11" s="453" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="454"/>
+      <c r="I11" s="454"/>
+      <c r="J11" s="454"/>
+      <c r="K11" s="455"/>
+      <c r="L11" s="456" t="s">
         <v>101</v>
       </c>
       <c r="M11" s="451"/>
@@ -14347,29 +14193,29 @@
         <v>84</v>
       </c>
       <c r="R11" s="450" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="S11" s="451"/>
       <c r="T11" s="451"/>
       <c r="U11" s="452"/>
-      <c r="V11" s="475">
+      <c r="V11" s="448">
         <v>1</v>
       </c>
-      <c r="W11" s="458"/>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="468"/>
-      <c r="Z11" s="450"/>
-      <c r="AA11" s="451"/>
-      <c r="AB11" s="452"/>
-      <c r="AC11" s="450"/>
-      <c r="AD11" s="451"/>
-      <c r="AE11" s="451"/>
-      <c r="AF11" s="451"/>
-      <c r="AG11" s="451"/>
-      <c r="AH11" s="451"/>
-      <c r="AI11" s="451"/>
-      <c r="AJ11" s="451"/>
-      <c r="AK11" s="452"/>
+      <c r="W11" s="449"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="213"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="203"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
+      <c r="AI11" s="203"/>
+      <c r="AJ11" s="203"/>
+      <c r="AK11" s="204"/>
       <c r="AL11" s="202"/>
       <c r="AM11" s="202"/>
       <c r="AN11" s="202"/>
@@ -14425,43 +14271,29 @@
       <c r="CM11" s="202"/>
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1">
-      <c r="A12" s="168">
-        <v>5</v>
-      </c>
-      <c r="B12" s="453" t="s">
-        <v>102</v>
-      </c>
+      <c r="A12" s="168"/>
+      <c r="B12" s="450"/>
       <c r="C12" s="451"/>
       <c r="D12" s="451"/>
       <c r="E12" s="451"/>
       <c r="F12" s="452"/>
-      <c r="G12" s="454" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="455"/>
-      <c r="I12" s="455"/>
-      <c r="J12" s="455"/>
-      <c r="K12" s="456"/>
-      <c r="L12" s="453" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="451"/>
-      <c r="N12" s="451"/>
-      <c r="O12" s="451"/>
-      <c r="P12" s="452"/>
-      <c r="Q12" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="450" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" s="457"/>
+      <c r="H12" s="458"/>
+      <c r="I12" s="458"/>
+      <c r="J12" s="458"/>
+      <c r="K12" s="459"/>
+      <c r="L12" s="457"/>
+      <c r="M12" s="458"/>
+      <c r="N12" s="458"/>
+      <c r="O12" s="458"/>
+      <c r="P12" s="459"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="450"/>
       <c r="S12" s="451"/>
       <c r="T12" s="451"/>
       <c r="U12" s="452"/>
-      <c r="V12" s="475">
-        <v>1</v>
-      </c>
-      <c r="W12" s="458"/>
+      <c r="V12" s="448"/>
+      <c r="W12" s="449"/>
       <c r="X12" s="212"/>
       <c r="Y12" s="213"/>
       <c r="Z12" s="62"/>
@@ -14530,133 +14362,92 @@
       <c r="CL12" s="202"/>
       <c r="CM12" s="202"/>
     </row>
-    <row r="13" spans="1:96" ht="15" customHeight="1">
-      <c r="A13" s="168"/>
-      <c r="B13" s="450"/>
-      <c r="C13" s="451"/>
-      <c r="D13" s="451"/>
-      <c r="E13" s="451"/>
-      <c r="F13" s="452"/>
-      <c r="G13" s="467"/>
-      <c r="H13" s="474"/>
-      <c r="I13" s="474"/>
-      <c r="J13" s="474"/>
-      <c r="K13" s="468"/>
-      <c r="L13" s="467"/>
-      <c r="M13" s="474"/>
-      <c r="N13" s="474"/>
-      <c r="O13" s="474"/>
-      <c r="P13" s="468"/>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="450"/>
-      <c r="S13" s="451"/>
-      <c r="T13" s="451"/>
-      <c r="U13" s="452"/>
-      <c r="V13" s="475"/>
-      <c r="W13" s="458"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="213"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="203"/>
-      <c r="AB13" s="204"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="203"/>
-      <c r="AE13" s="203"/>
-      <c r="AF13" s="203"/>
-      <c r="AG13" s="203"/>
-      <c r="AH13" s="203"/>
-      <c r="AI13" s="203"/>
-      <c r="AJ13" s="203"/>
-      <c r="AK13" s="204"/>
-      <c r="AL13" s="202"/>
-      <c r="AM13" s="202"/>
-      <c r="AN13" s="202"/>
-      <c r="AP13" s="202"/>
-      <c r="AQ13" s="202"/>
-      <c r="AR13" s="202"/>
-      <c r="AS13" s="202"/>
-      <c r="AT13" s="202"/>
-      <c r="AU13" s="202"/>
-      <c r="AV13" s="202"/>
-      <c r="AW13" s="202"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="75"/>
-      <c r="BA13" s="75"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
-      <c r="BD13" s="75"/>
-      <c r="BE13" s="75"/>
-      <c r="BF13" s="75"/>
-      <c r="BG13" s="75"/>
-      <c r="BH13" s="75"/>
-      <c r="BI13" s="75"/>
-      <c r="BJ13" s="75"/>
-      <c r="BK13" s="75"/>
-      <c r="BL13" s="75"/>
-      <c r="BM13" s="75"/>
-      <c r="BN13" s="75"/>
-      <c r="BO13" s="75"/>
-      <c r="BP13" s="75"/>
-      <c r="BQ13" s="75"/>
-      <c r="BR13" s="75"/>
-      <c r="BS13" s="75"/>
-      <c r="BT13" s="75"/>
-      <c r="BU13" s="75"/>
-      <c r="BV13" s="75"/>
-      <c r="BW13" s="75"/>
-      <c r="BX13" s="75"/>
-      <c r="BY13" s="75"/>
-      <c r="BZ13" s="75"/>
-      <c r="CA13" s="75"/>
-      <c r="CB13" s="75"/>
-      <c r="CC13" s="202"/>
-      <c r="CD13" s="202"/>
-      <c r="CE13" s="202"/>
-      <c r="CF13" s="202"/>
-      <c r="CG13" s="202"/>
-      <c r="CH13" s="202"/>
-      <c r="CI13" s="202"/>
-      <c r="CJ13" s="202"/>
-      <c r="CK13" s="202"/>
-      <c r="CL13" s="202"/>
-      <c r="CM13" s="202"/>
+    <row r="13" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="216"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="79"/>
+      <c r="CD13" s="81"/>
+      <c r="CE13" s="81"/>
+      <c r="CF13" s="81"/>
+      <c r="CG13" s="81"/>
+      <c r="CH13" s="82"/>
+      <c r="CI13" s="82"/>
+      <c r="CJ13" s="82"/>
+      <c r="CK13" s="82"/>
+      <c r="CL13" s="82"/>
+      <c r="CM13" s="82"/>
+      <c r="CN13" s="82"/>
+      <c r="CO13" s="82"/>
+      <c r="CP13" s="82"/>
+      <c r="CQ13" s="82"/>
+      <c r="CR13" s="82"/>
     </row>
     <row r="14" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="214"/>
-      <c r="Q14" s="214"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="215"/>
-      <c r="V14" s="216"/>
-      <c r="W14" s="216"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="214"/>
-      <c r="AH14" s="79"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="222"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="218"/>
+      <c r="AA14" s="218"/>
+      <c r="AB14" s="218"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="82"/>
       <c r="CD14" s="81"/>
       <c r="CE14" s="81"/>
       <c r="CF14" s="81"/>
@@ -14673,257 +14464,221 @@
       <c r="CQ14" s="82"/>
       <c r="CR14" s="82"/>
     </row>
-    <row r="15" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="219"/>
-      <c r="T15" s="219"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="220"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="218"/>
-      <c r="AB15" s="218"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="218"/>
-      <c r="AH15" s="82"/>
-      <c r="CD15" s="81"/>
-      <c r="CE15" s="81"/>
-      <c r="CF15" s="81"/>
-      <c r="CG15" s="81"/>
-      <c r="CH15" s="82"/>
-      <c r="CI15" s="82"/>
-      <c r="CJ15" s="82"/>
-      <c r="CK15" s="82"/>
-      <c r="CL15" s="82"/>
-      <c r="CM15" s="82"/>
-      <c r="CN15" s="82"/>
-      <c r="CO15" s="82"/>
-      <c r="CP15" s="82"/>
-      <c r="CQ15" s="82"/>
-      <c r="CR15" s="82"/>
-    </row>
-    <row r="16" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="218"/>
-      <c r="S16" s="219"/>
-      <c r="T16" s="219"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="220"/>
-      <c r="Y16" s="220"/>
-      <c r="Z16" s="218"/>
-      <c r="AA16" s="218"/>
-      <c r="AB16" s="218"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="218"/>
-      <c r="AH16" s="82"/>
-      <c r="CD16" s="81"/>
-      <c r="CE16" s="81"/>
-      <c r="CF16" s="81"/>
-      <c r="CG16" s="81"/>
-      <c r="CH16" s="82"/>
-      <c r="CI16" s="82"/>
-      <c r="CJ16" s="82"/>
-      <c r="CK16" s="82"/>
-      <c r="CL16" s="82"/>
-      <c r="CM16" s="82"/>
-      <c r="CN16" s="82"/>
-      <c r="CO16" s="82"/>
-      <c r="CP16" s="82"/>
-      <c r="CQ16" s="82"/>
-      <c r="CR16" s="82"/>
-    </row>
-    <row r="17" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="221"/>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="218"/>
-      <c r="S17" s="219"/>
-      <c r="T17" s="219"/>
-      <c r="U17" s="219"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="220"/>
-      <c r="Y17" s="220"/>
-      <c r="Z17" s="218"/>
-      <c r="AA17" s="218"/>
-      <c r="AB17" s="218"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="218"/>
-      <c r="AH17" s="82"/>
-      <c r="CD17" s="81"/>
-      <c r="CE17" s="81"/>
-      <c r="CF17" s="81"/>
-      <c r="CG17" s="81"/>
-      <c r="CH17" s="82"/>
-      <c r="CI17" s="82"/>
-      <c r="CJ17" s="82"/>
-      <c r="CK17" s="82"/>
-      <c r="CL17" s="82"/>
-      <c r="CM17" s="82"/>
-      <c r="CN17" s="82"/>
-      <c r="CO17" s="82"/>
-      <c r="CP17" s="82"/>
-      <c r="CQ17" s="82"/>
-      <c r="CR17" s="82"/>
-    </row>
-    <row r="18" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="459" t="s">
+    <row r="15" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="465" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="459"/>
-      <c r="C18" s="459"/>
-      <c r="D18" s="459"/>
-      <c r="E18" s="459"/>
-      <c r="F18" s="459"/>
-      <c r="G18" s="459"/>
-      <c r="H18" s="459"/>
-      <c r="I18" s="459"/>
-      <c r="J18" s="459"/>
-      <c r="K18" s="459"/>
-      <c r="L18" s="459"/>
-      <c r="M18" s="459"/>
-      <c r="N18" s="459"/>
-      <c r="O18" s="459"/>
-      <c r="P18" s="459"/>
-      <c r="Q18" s="459"/>
-      <c r="R18" s="459"/>
-      <c r="S18" s="459"/>
-      <c r="T18" s="459"/>
-      <c r="U18" s="459"/>
-      <c r="V18" s="459"/>
-      <c r="W18" s="459"/>
-      <c r="X18" s="459"/>
-      <c r="Y18" s="460" t="s">
+      <c r="B15" s="465"/>
+      <c r="C15" s="465"/>
+      <c r="D15" s="465"/>
+      <c r="E15" s="465"/>
+      <c r="F15" s="465"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="465"/>
+      <c r="I15" s="465"/>
+      <c r="J15" s="465"/>
+      <c r="K15" s="465"/>
+      <c r="L15" s="465"/>
+      <c r="M15" s="465"/>
+      <c r="N15" s="465"/>
+      <c r="O15" s="465"/>
+      <c r="P15" s="465"/>
+      <c r="Q15" s="465"/>
+      <c r="R15" s="465"/>
+      <c r="S15" s="465"/>
+      <c r="T15" s="465"/>
+      <c r="U15" s="465"/>
+      <c r="V15" s="465"/>
+      <c r="W15" s="465"/>
+      <c r="X15" s="465"/>
+      <c r="Y15" s="466" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="461"/>
-      <c r="AA18" s="461"/>
-      <c r="AB18" s="461"/>
-      <c r="AC18" s="461"/>
-      <c r="AD18" s="461"/>
-      <c r="AE18" s="461"/>
-      <c r="AF18" s="461"/>
-      <c r="AG18" s="461"/>
-      <c r="AH18" s="461"/>
-      <c r="AI18" s="461"/>
-      <c r="AJ18" s="461"/>
-      <c r="AK18" s="462"/>
-    </row>
-    <row r="19" spans="1:96" ht="15" customHeight="1">
-      <c r="A19" s="223"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="225"/>
-      <c r="Z19" s="226"/>
-      <c r="AA19" s="226"/>
-      <c r="AB19" s="226"/>
-      <c r="AC19" s="226"/>
-      <c r="AD19" s="226"/>
-      <c r="AE19" s="226"/>
-      <c r="AF19" s="226"/>
-      <c r="AG19" s="226"/>
-      <c r="AH19" s="226"/>
-      <c r="AI19" s="226"/>
-      <c r="AJ19" s="226"/>
-      <c r="AK19" s="227"/>
-      <c r="CD19" s="75"/>
-      <c r="CE19" s="75"/>
-      <c r="CF19" s="75"/>
-      <c r="CG19" s="75"/>
-      <c r="CH19" s="202"/>
-      <c r="CI19" s="202"/>
-      <c r="CJ19" s="202"/>
-      <c r="CK19" s="202"/>
-      <c r="CL19" s="202"/>
-      <c r="CM19" s="202"/>
-      <c r="CN19" s="202"/>
-      <c r="CO19" s="202"/>
-      <c r="CP19" s="202"/>
-      <c r="CQ19" s="202"/>
-      <c r="CR19" s="202"/>
-    </row>
-    <row r="20" spans="1:96" ht="15" customHeight="1">
+      <c r="Z15" s="467"/>
+      <c r="AA15" s="467"/>
+      <c r="AB15" s="467"/>
+      <c r="AC15" s="467"/>
+      <c r="AD15" s="467"/>
+      <c r="AE15" s="467"/>
+      <c r="AF15" s="467"/>
+      <c r="AG15" s="467"/>
+      <c r="AH15" s="467"/>
+      <c r="AI15" s="467"/>
+      <c r="AJ15" s="467"/>
+      <c r="AK15" s="468"/>
+    </row>
+    <row r="16" spans="1:96" ht="15" customHeight="1">
+      <c r="A16" s="223"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="224"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="225"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="226"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="226"/>
+      <c r="AF16" s="226"/>
+      <c r="AG16" s="226"/>
+      <c r="AH16" s="226"/>
+      <c r="AI16" s="226"/>
+      <c r="AJ16" s="226"/>
+      <c r="AK16" s="227"/>
+      <c r="CD16" s="75"/>
+      <c r="CE16" s="75"/>
+      <c r="CF16" s="75"/>
+      <c r="CG16" s="75"/>
+      <c r="CH16" s="202"/>
+      <c r="CI16" s="202"/>
+      <c r="CJ16" s="202"/>
+      <c r="CK16" s="202"/>
+      <c r="CL16" s="202"/>
+      <c r="CM16" s="202"/>
+      <c r="CN16" s="202"/>
+      <c r="CO16" s="202"/>
+      <c r="CP16" s="202"/>
+      <c r="CQ16" s="202"/>
+      <c r="CR16" s="202"/>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1">
+      <c r="A17" s="228"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="229"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="188"/>
+      <c r="AD17" s="188"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="188"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="188"/>
+      <c r="AI17" s="188"/>
+      <c r="AJ17" s="188"/>
+      <c r="AK17" s="230"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1">
+      <c r="A18" s="228"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="202"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="229"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="188"/>
+      <c r="AD18" s="188"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="188"/>
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="188"/>
+      <c r="AI18" s="188"/>
+      <c r="AJ18" s="188"/>
+      <c r="AK18" s="230"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1">
+      <c r="A19" s="228"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="229"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="188"/>
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="188"/>
+      <c r="AI19" s="188"/>
+      <c r="AJ19" s="188"/>
+      <c r="AK19" s="230"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20" s="228"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -14962,7 +14717,7 @@
       <c r="AJ20" s="188"/>
       <c r="AK20" s="230"/>
     </row>
-    <row r="21" spans="1:96" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="228"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -15001,7 +14756,7 @@
       <c r="AJ21" s="188"/>
       <c r="AK21" s="230"/>
     </row>
-    <row r="22" spans="1:96" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="228"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
@@ -15040,7 +14795,7 @@
       <c r="AJ22" s="188"/>
       <c r="AK22" s="230"/>
     </row>
-    <row r="23" spans="1:96" ht="15" customHeight="1">
+    <row r="23" spans="1:37" ht="15" customHeight="1">
       <c r="A23" s="228"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
@@ -15079,7 +14834,7 @@
       <c r="AJ23" s="188"/>
       <c r="AK23" s="230"/>
     </row>
-    <row r="24" spans="1:96" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1">
       <c r="A24" s="228"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
@@ -15118,7 +14873,7 @@
       <c r="AJ24" s="188"/>
       <c r="AK24" s="230"/>
     </row>
-    <row r="25" spans="1:96" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25" s="228"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
@@ -15141,7 +14896,7 @@
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
-      <c r="W25" s="202"/>
+      <c r="W25" s="241"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="229"/>
       <c r="Z25" s="188"/>
@@ -15157,7 +14912,7 @@
       <c r="AJ25" s="188"/>
       <c r="AK25" s="230"/>
     </row>
-    <row r="26" spans="1:96" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26" s="228"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -15196,7 +14951,7 @@
       <c r="AJ26" s="188"/>
       <c r="AK26" s="230"/>
     </row>
-    <row r="27" spans="1:96" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27" s="228"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
@@ -15235,7 +14990,7 @@
       <c r="AJ27" s="188"/>
       <c r="AK27" s="230"/>
     </row>
-    <row r="28" spans="1:96" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1">
       <c r="A28" s="228"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
@@ -15258,7 +15013,7 @@
       <c r="T28" s="68"/>
       <c r="U28" s="68"/>
       <c r="V28" s="68"/>
-      <c r="W28" s="241"/>
+      <c r="W28" s="202"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="229"/>
       <c r="Z28" s="188"/>
@@ -15274,7 +15029,7 @@
       <c r="AJ28" s="188"/>
       <c r="AK28" s="230"/>
     </row>
-    <row r="29" spans="1:96" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1">
       <c r="A29" s="228"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
@@ -15313,7 +15068,7 @@
       <c r="AJ29" s="188"/>
       <c r="AK29" s="230"/>
     </row>
-    <row r="30" spans="1:96" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1">
       <c r="A30" s="228"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -15352,202 +15107,72 @@
       <c r="AJ30" s="188"/>
       <c r="AK30" s="230"/>
     </row>
-    <row r="31" spans="1:96" ht="15" customHeight="1">
-      <c r="A31" s="228"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="202"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="229"/>
-      <c r="Z31" s="188"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
-      <c r="AD31" s="188"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="188"/>
-      <c r="AG31" s="188"/>
-      <c r="AH31" s="188"/>
-      <c r="AI31" s="188"/>
-      <c r="AJ31" s="188"/>
-      <c r="AK31" s="230"/>
-    </row>
-    <row r="32" spans="1:96" ht="15" customHeight="1">
-      <c r="A32" s="228"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="202"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="229"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="188"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="188"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="188"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="188"/>
-      <c r="AI32" s="188"/>
-      <c r="AJ32" s="188"/>
-      <c r="AK32" s="230"/>
-    </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
-      <c r="A33" s="228"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="202"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="229"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AB33" s="188"/>
-      <c r="AC33" s="188"/>
-      <c r="AD33" s="188"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="188"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="188"/>
-      <c r="AI33" s="188"/>
-      <c r="AJ33" s="188"/>
-      <c r="AK33" s="230"/>
-    </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
-      <c r="A34" s="231"/>
-      <c r="B34" s="232"/>
-      <c r="C34" s="232"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="232"/>
-      <c r="K34" s="232"/>
-      <c r="L34" s="232"/>
-      <c r="M34" s="232"/>
-      <c r="N34" s="232"/>
-      <c r="O34" s="232"/>
-      <c r="P34" s="232"/>
-      <c r="Q34" s="232"/>
-      <c r="R34" s="232"/>
-      <c r="S34" s="232"/>
-      <c r="T34" s="232"/>
-      <c r="U34" s="232"/>
-      <c r="V34" s="232"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="233"/>
-      <c r="Z34" s="234"/>
-      <c r="AA34" s="234"/>
-      <c r="AB34" s="234"/>
-      <c r="AC34" s="234"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
-      <c r="AG34" s="234"/>
-      <c r="AH34" s="234"/>
-      <c r="AI34" s="234"/>
-      <c r="AJ34" s="234"/>
-      <c r="AK34" s="235"/>
-    </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1">
-      <c r="D35" s="88"/>
-      <c r="X35" s="88"/>
+    <row r="31" spans="1:37" ht="15" customHeight="1">
+      <c r="A31" s="231"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
+      <c r="V31" s="232"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="233"/>
+      <c r="Z31" s="234"/>
+      <c r="AA31" s="234"/>
+      <c r="AB31" s="234"/>
+      <c r="AC31" s="234"/>
+      <c r="AD31" s="234"/>
+      <c r="AE31" s="234"/>
+      <c r="AF31" s="234"/>
+      <c r="AG31" s="234"/>
+      <c r="AH31" s="234"/>
+      <c r="AI31" s="234"/>
+      <c r="AJ31" s="234"/>
+      <c r="AK31" s="235"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" customHeight="1">
+      <c r="D32" s="88"/>
+      <c r="X32" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
+  <mergeCells count="61">
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AC11:AK11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
@@ -15559,37 +15184,42 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
     <mergeCell ref="R11:U11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="R12:U12"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L11:P11"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q12">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
@@ -15599,9 +15229,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="37" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10101P_顧客検索応答電文_(JSON).xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10101P_顧客検索応答電文_(JSON).xlsx
@@ -31,430 +31,6 @@
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="Q7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">インタフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
-同一のファイルを複数の相手先に送る場合、「相手先」欄に複数記述する。
-例）ＸＸ１システム、ＸＸ２システム
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>機能名称を記入する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースのファイルID/電文IDを記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの利用目的・概要を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ファイルが作成される条件を記述する。
-対象データが0件の場合も合わせて作成条件欄に記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの授受媒体を選択する。
-「その他」の場合は詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では「階層構造(JSON形式)」固定
-インタフェースのデータ形式を選択する。
-「その他」の場合は、詳細を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>階層構造（JSON形式）固定。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>伝送の場合は、伝送方式を記述する。
-その他の場合は、媒体送付方法を記述する
-例1）伝送ファイルの場合　「FTP」または「HULFT」　　
-例2）MT/FD/MOの場合　「オフラインMTサーバ」</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-フィールド区切りの識別文字を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの暗号化有無を選択する。
-暗号化は下記３パターンを想定している。
-３パターンのいずれかで暗号化するのであれば　暗号化「有り」にチェックをいれて、実施する暗号化の詳細を記載する。
-・通信暗号化：通信経路の暗号化(HTTPS、SFTP等)
-・ファイル暗号化：ファイル全体を暗号化
-・項目暗号化：特定の項目のみを暗号化</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの改行コードを選択する。
-「その他」の場合は、詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースの文字コードを記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSON形式では記載不要。
-インタフェースの改行コードを選択する。
-「その他」の場合は、詳細を記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェースを入出力する処理サイクルを記述する。
-括弧内には、詳細を記述する</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>記載が必要だが特定の項目がない場合、特記事項欄に記述する。例）標準値以外の文字設定など</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>JSONの場合はレコード名に1件のみ記述する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">レコード構成シートに記述されたレコード種類ごとに、１シート作成する。JSONの場合はレコードが1種類なので1シートのみでよい。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>インタフェース項目を識別するためのID。
-数値のみでないこと。
-また、レコード種類ごとに一意になるIDをつけること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>項目のバリデーション仕様をドメイン定義と紐付けるための名称。ドメイン定義の「ドメイン名(論理)」と一致させること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>入力インタフェースの場合は
-必須項目であれば"○"を記入する。
-出力インタフェースの場合は
-必ず値をセットする項目であれば
-"○"を記入する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">対象項目の繰り返し回数を設定する.   
- ①繰り返し回数が固定の場合は、固定値を記述  
- 　例）　1  
- 　　　　※多重度を未記入の場合は、1と同等に扱う  
- ②繰り返し回数が可変の場合は、最小値と最大値を記述  
- 　例）　1..5 (上限ありの場合)  
- 　　　　 1..* (上限なしの場合)  
-          0..1（必須でない項目の場合）  
-  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">値が設定されなかった場合に設定するデフォルト値がある場合は記入する。 
-固定値を設定する場合もこの欄に記入する。 
-文字列項目の場合はダブルコーテーションで括って記述し、数値項目の場合はダブルコーテーションで括らず記述する。 
- 例)文字列項目の場合："1"　数値項目の場合：9999
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>フォーマット編集が必要な場合に記入する。
-入力インタフェースの場合は受け取り可能なフォーマットを記述する。
-出力インタフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>データ構造が複雑な場合、視覚的に理解しやすくする目的で記載する。
-この項目は必須ではない。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2673,6 +2249,135 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2712,134 +2417,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2850,68 +2489,113 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2922,113 +2606,221 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3057,15 +2849,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3078,242 +2861,71 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3324,43 +2936,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7017,155 +6593,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="258" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="290" t="s">
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="291"/>
-      <c r="U1" s="291"/>
-      <c r="V1" s="291"/>
-      <c r="W1" s="291"/>
-      <c r="X1" s="291"/>
-      <c r="Y1" s="291"/>
-      <c r="Z1" s="292"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="243" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="284">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="246">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="286"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="248"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="286" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="258" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="295"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="286" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="287" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="288"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="289"/>
-      <c r="AG2" s="284" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="246" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="286"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="286" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="255" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="298" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="297"/>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="297"/>
-      <c r="Y3" s="297"/>
-      <c r="Z3" s="298"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="286"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
@@ -7212,98 +6788,98 @@
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="268" t="s">
+      <c r="C7" s="266"/>
+      <c r="D7" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="268" t="s">
+      <c r="E7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="269"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="280" t="s">
+      <c r="H7" s="265"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="268" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="268" t="s">
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="270"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="271" t="s">
+      <c r="B8" s="276" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273">
+      <c r="C8" s="277"/>
+      <c r="D8" s="278">
         <v>43718</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="271" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="276"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="277" t="s">
+      <c r="H8" s="281"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="277" t="s">
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="282" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="278"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="278"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="278"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="278"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="279"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="283"/>
+      <c r="X8" s="283"/>
+      <c r="Y8" s="283"/>
+      <c r="Z8" s="283"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="283"/>
+      <c r="AC8" s="283"/>
+      <c r="AD8" s="283"/>
+      <c r="AE8" s="284"/>
       <c r="AF8" s="131" t="s">
         <v>89</v>
       </c>
@@ -7314,36 +6890,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="168"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="266"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="266"/>
-      <c r="S9" s="266"/>
-      <c r="T9" s="266"/>
-      <c r="U9" s="266"/>
-      <c r="V9" s="266"/>
-      <c r="W9" s="266"/>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="267"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
+      <c r="S9" s="274"/>
+      <c r="T9" s="274"/>
+      <c r="U9" s="274"/>
+      <c r="V9" s="274"/>
+      <c r="W9" s="274"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
+      <c r="AA9" s="274"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="274"/>
+      <c r="AE9" s="275"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="128"/>
       <c r="AH9" s="128"/>
@@ -7352,36 +6928,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="266"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="266"/>
-      <c r="S10" s="266"/>
-      <c r="T10" s="266"/>
-      <c r="U10" s="266"/>
-      <c r="V10" s="266"/>
-      <c r="W10" s="266"/>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="266"/>
-      <c r="Z10" s="266"/>
-      <c r="AA10" s="266"/>
-      <c r="AB10" s="266"/>
-      <c r="AC10" s="266"/>
-      <c r="AD10" s="266"/>
-      <c r="AE10" s="267"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="274"/>
+      <c r="AA10" s="274"/>
+      <c r="AB10" s="274"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="274"/>
+      <c r="AE10" s="275"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
@@ -7389,36 +6965,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="267"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
-      <c r="Y11" s="266"/>
-      <c r="Z11" s="266"/>
-      <c r="AA11" s="266"/>
-      <c r="AB11" s="266"/>
-      <c r="AC11" s="266"/>
-      <c r="AD11" s="266"/>
-      <c r="AE11" s="267"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="275"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -7426,36 +7002,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="265"/>
-      <c r="R12" s="266"/>
-      <c r="S12" s="266"/>
-      <c r="T12" s="266"/>
-      <c r="U12" s="266"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="266"/>
-      <c r="X12" s="266"/>
-      <c r="Y12" s="266"/>
-      <c r="Z12" s="266"/>
-      <c r="AA12" s="266"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="266"/>
-      <c r="AD12" s="266"/>
-      <c r="AE12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="274"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="274"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="274"/>
+      <c r="Y12" s="274"/>
+      <c r="Z12" s="274"/>
+      <c r="AA12" s="274"/>
+      <c r="AB12" s="274"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="274"/>
+      <c r="AE12" s="275"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
@@ -7463,36 +7039,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="266"/>
-      <c r="T13" s="266"/>
-      <c r="U13" s="266"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="266"/>
-      <c r="X13" s="266"/>
-      <c r="Y13" s="266"/>
-      <c r="Z13" s="266"/>
-      <c r="AA13" s="266"/>
-      <c r="AB13" s="266"/>
-      <c r="AC13" s="266"/>
-      <c r="AD13" s="266"/>
-      <c r="AE13" s="267"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="275"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="274"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="275"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
@@ -8240,14 +7816,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8264,35 +7861,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -8449,158 +8025,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="258" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="299">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="320">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="300"/>
-      <c r="AI1" s="301"/>
+      <c r="AH1" s="321"/>
+      <c r="AI1" s="322"/>
     </row>
     <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="258" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="299" t="str">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="320" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="300"/>
-      <c r="AI2" s="301"/>
+      <c r="AH2" s="321"/>
+      <c r="AI2" s="322"/>
     </row>
     <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="258" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="299" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="320" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="300"/>
-      <c r="AI3" s="301"/>
+      <c r="AH3" s="321"/>
+      <c r="AI3" s="322"/>
     </row>
     <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="66"/>
@@ -10033,6 +9609,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -10043,13 +9626,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -10076,158 +9652,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="258" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="323">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="359">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="324"/>
-      <c r="AI1" s="325"/>
+      <c r="AH1" s="360"/>
+      <c r="AI1" s="361"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="258" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="323" t="str">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="325"/>
+      <c r="AH2" s="360"/>
+      <c r="AI2" s="361"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="258" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="323" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="324"/>
-      <c r="AI3" s="325"/>
+      <c r="AH3" s="360"/>
+      <c r="AI3" s="361"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -10315,12 +9891,12 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="323" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="334"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="333"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -10333,82 +9909,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="353" t="s">
+      <c r="Q7" s="334" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="354"/>
-      <c r="S7" s="354"/>
-      <c r="T7" s="355"/>
-      <c r="U7" s="359" t="s">
+      <c r="R7" s="335"/>
+      <c r="S7" s="335"/>
+      <c r="T7" s="336"/>
+      <c r="U7" s="326" t="s">
         <v>105</v>
       </c>
-      <c r="V7" s="360"/>
-      <c r="W7" s="360"/>
-      <c r="X7" s="360"/>
-      <c r="Y7" s="360"/>
-      <c r="Z7" s="360"/>
-      <c r="AA7" s="360"/>
-      <c r="AB7" s="360"/>
-      <c r="AC7" s="360"/>
-      <c r="AD7" s="360"/>
-      <c r="AE7" s="360"/>
-      <c r="AF7" s="360"/>
-      <c r="AG7" s="360"/>
-      <c r="AH7" s="360"/>
-      <c r="AI7" s="361"/>
+      <c r="V7" s="327"/>
+      <c r="W7" s="327"/>
+      <c r="X7" s="327"/>
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="327"/>
+      <c r="AA7" s="327"/>
+      <c r="AB7" s="327"/>
+      <c r="AC7" s="327"/>
+      <c r="AD7" s="327"/>
+      <c r="AE7" s="327"/>
+      <c r="AF7" s="327"/>
+      <c r="AG7" s="327"/>
+      <c r="AH7" s="327"/>
+      <c r="AI7" s="328"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="326" t="s">
+      <c r="A8" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="333"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="344" t="s">
+      <c r="B8" s="332"/>
+      <c r="C8" s="332"/>
+      <c r="D8" s="333"/>
+      <c r="E8" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="345"/>
-      <c r="G8" s="345"/>
-      <c r="H8" s="345"/>
-      <c r="I8" s="345"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="345"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="345"/>
-      <c r="N8" s="345"/>
-      <c r="O8" s="345"/>
-      <c r="P8" s="345"/>
-      <c r="Q8" s="326" t="s">
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="330"/>
+      <c r="M8" s="330"/>
+      <c r="N8" s="330"/>
+      <c r="O8" s="330"/>
+      <c r="P8" s="330"/>
+      <c r="Q8" s="323" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="333"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="334"/>
-      <c r="U8" s="344" t="s">
+      <c r="R8" s="332"/>
+      <c r="S8" s="332"/>
+      <c r="T8" s="333"/>
+      <c r="U8" s="329" t="s">
         <v>113</v>
       </c>
-      <c r="V8" s="345"/>
-      <c r="W8" s="345"/>
-      <c r="X8" s="345"/>
-      <c r="Y8" s="345"/>
-      <c r="Z8" s="345"/>
-      <c r="AA8" s="345"/>
-      <c r="AB8" s="345"/>
-      <c r="AC8" s="345"/>
-      <c r="AD8" s="345"/>
-      <c r="AE8" s="345"/>
-      <c r="AF8" s="345"/>
-      <c r="AG8" s="345"/>
-      <c r="AH8" s="345"/>
-      <c r="AI8" s="346"/>
+      <c r="V8" s="330"/>
+      <c r="W8" s="330"/>
+      <c r="X8" s="330"/>
+      <c r="Y8" s="330"/>
+      <c r="Z8" s="330"/>
+      <c r="AA8" s="330"/>
+      <c r="AB8" s="330"/>
+      <c r="AC8" s="330"/>
+      <c r="AD8" s="330"/>
+      <c r="AE8" s="330"/>
+      <c r="AF8" s="330"/>
+      <c r="AG8" s="330"/>
+      <c r="AH8" s="330"/>
+      <c r="AI8" s="331"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="332"/>
+      <c r="D9" s="333"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -10594,12 +10170,12 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="326" t="s">
+      <c r="A14" s="323" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="327"/>
-      <c r="C14" s="327"/>
-      <c r="D14" s="328"/>
+      <c r="B14" s="324"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="325"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -10744,12 +10320,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="347" t="s">
+      <c r="A18" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="348"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="349"/>
+      <c r="B18" s="338"/>
+      <c r="C18" s="338"/>
+      <c r="D18" s="339"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -10762,12 +10338,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="347" t="s">
+      <c r="Q18" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="349"/>
+      <c r="R18" s="338"/>
+      <c r="S18" s="338"/>
+      <c r="T18" s="339"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -10867,55 +10443,55 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="326" t="s">
+      <c r="A21" s="323" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="333"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="344" t="s">
+      <c r="B21" s="332"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
-      <c r="K21" s="345"/>
-      <c r="L21" s="345"/>
-      <c r="M21" s="345"/>
-      <c r="N21" s="345"/>
-      <c r="O21" s="345"/>
-      <c r="P21" s="346"/>
-      <c r="Q21" s="326" t="s">
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
+      <c r="K21" s="330"/>
+      <c r="L21" s="330"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="330"/>
+      <c r="O21" s="330"/>
+      <c r="P21" s="331"/>
+      <c r="Q21" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="333"/>
-      <c r="S21" s="333"/>
-      <c r="T21" s="334"/>
-      <c r="U21" s="350"/>
-      <c r="V21" s="351"/>
-      <c r="W21" s="351"/>
-      <c r="X21" s="351"/>
-      <c r="Y21" s="351"/>
-      <c r="Z21" s="351"/>
-      <c r="AA21" s="351"/>
-      <c r="AB21" s="351"/>
-      <c r="AC21" s="351"/>
-      <c r="AD21" s="351"/>
-      <c r="AE21" s="351"/>
-      <c r="AF21" s="351"/>
-      <c r="AG21" s="351"/>
-      <c r="AH21" s="351"/>
-      <c r="AI21" s="352"/>
+      <c r="R21" s="332"/>
+      <c r="S21" s="332"/>
+      <c r="T21" s="333"/>
+      <c r="U21" s="340"/>
+      <c r="V21" s="341"/>
+      <c r="W21" s="341"/>
+      <c r="X21" s="341"/>
+      <c r="Y21" s="341"/>
+      <c r="Z21" s="341"/>
+      <c r="AA21" s="341"/>
+      <c r="AB21" s="341"/>
+      <c r="AC21" s="341"/>
+      <c r="AD21" s="341"/>
+      <c r="AE21" s="341"/>
+      <c r="AF21" s="341"/>
+      <c r="AG21" s="341"/>
+      <c r="AH21" s="341"/>
+      <c r="AI21" s="342"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="353" t="s">
+      <c r="A22" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="354"/>
-      <c r="C22" s="354"/>
-      <c r="D22" s="355"/>
+      <c r="B22" s="335"/>
+      <c r="C22" s="335"/>
+      <c r="D22" s="336"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -10928,12 +10504,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="353" t="s">
+      <c r="Q22" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="354"/>
-      <c r="S22" s="354"/>
-      <c r="T22" s="355"/>
+      <c r="R22" s="335"/>
+      <c r="S22" s="335"/>
+      <c r="T22" s="336"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -10996,36 +10572,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="341" t="s">
+      <c r="A24" s="356" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="342"/>
-      <c r="C24" s="342"/>
-      <c r="D24" s="343"/>
-      <c r="E24" s="344" t="s">
+      <c r="B24" s="357"/>
+      <c r="C24" s="357"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="329" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="345"/>
-      <c r="G24" s="345"/>
-      <c r="H24" s="345"/>
-      <c r="I24" s="345"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="345"/>
-      <c r="L24" s="345"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="345"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="346"/>
-      <c r="Q24" s="356" t="s">
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
+      <c r="K24" s="330"/>
+      <c r="L24" s="330"/>
+      <c r="M24" s="330"/>
+      <c r="N24" s="330"/>
+      <c r="O24" s="330"/>
+      <c r="P24" s="331"/>
+      <c r="Q24" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="357"/>
-      <c r="S24" s="357"/>
-      <c r="T24" s="358"/>
-      <c r="U24" s="331"/>
-      <c r="V24" s="332"/>
-      <c r="W24" s="332"/>
-      <c r="X24" s="332"/>
+      <c r="R24" s="344"/>
+      <c r="S24" s="344"/>
+      <c r="T24" s="345"/>
+      <c r="U24" s="348"/>
+      <c r="V24" s="349"/>
+      <c r="W24" s="349"/>
+      <c r="X24" s="349"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -11041,26 +10617,26 @@
       <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="337" t="s">
+      <c r="A25" s="352" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="338"/>
-      <c r="C25" s="338"/>
-      <c r="D25" s="339"/>
+      <c r="B25" s="353"/>
+      <c r="C25" s="353"/>
+      <c r="D25" s="354"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="329"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
-      <c r="K25" s="330"/>
-      <c r="L25" s="330"/>
-      <c r="M25" s="330"/>
-      <c r="N25" s="330"/>
-      <c r="O25" s="330"/>
-      <c r="P25" s="330"/>
+      <c r="H25" s="346"/>
+      <c r="I25" s="347"/>
+      <c r="J25" s="347"/>
+      <c r="K25" s="347"/>
+      <c r="L25" s="347"/>
+      <c r="M25" s="347"/>
+      <c r="N25" s="347"/>
+      <c r="O25" s="347"/>
+      <c r="P25" s="347"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -11069,15 +10645,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="340"/>
-      <c r="V25" s="340"/>
-      <c r="W25" s="340"/>
-      <c r="X25" s="340"/>
-      <c r="Y25" s="340"/>
-      <c r="Z25" s="340"/>
-      <c r="AA25" s="340"/>
-      <c r="AB25" s="340"/>
-      <c r="AC25" s="340"/>
+      <c r="U25" s="355"/>
+      <c r="V25" s="355"/>
+      <c r="W25" s="355"/>
+      <c r="X25" s="355"/>
+      <c r="Y25" s="355"/>
+      <c r="Z25" s="355"/>
+      <c r="AA25" s="355"/>
+      <c r="AB25" s="355"/>
+      <c r="AC25" s="355"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -11097,15 +10673,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="336"/>
-      <c r="I26" s="336"/>
-      <c r="J26" s="336"/>
-      <c r="K26" s="336"/>
-      <c r="L26" s="336"/>
-      <c r="M26" s="336"/>
-      <c r="N26" s="336"/>
-      <c r="O26" s="336"/>
-      <c r="P26" s="336"/>
+      <c r="H26" s="351"/>
+      <c r="I26" s="351"/>
+      <c r="J26" s="351"/>
+      <c r="K26" s="351"/>
+      <c r="L26" s="351"/>
+      <c r="M26" s="351"/>
+      <c r="N26" s="351"/>
+      <c r="O26" s="351"/>
+      <c r="P26" s="351"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -11114,15 +10690,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="336"/>
-      <c r="V26" s="336"/>
-      <c r="W26" s="336"/>
-      <c r="X26" s="336"/>
-      <c r="Y26" s="336"/>
-      <c r="Z26" s="336"/>
-      <c r="AA26" s="336"/>
-      <c r="AB26" s="336"/>
-      <c r="AC26" s="336"/>
+      <c r="U26" s="351"/>
+      <c r="V26" s="351"/>
+      <c r="W26" s="351"/>
+      <c r="X26" s="351"/>
+      <c r="Y26" s="351"/>
+      <c r="Z26" s="351"/>
+      <c r="AA26" s="351"/>
+      <c r="AB26" s="351"/>
+      <c r="AC26" s="351"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -11142,15 +10718,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="335"/>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
-      <c r="N27" s="335"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
+      <c r="H27" s="350"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="350"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="350"/>
+      <c r="M27" s="350"/>
+      <c r="N27" s="350"/>
+      <c r="O27" s="350"/>
+      <c r="P27" s="350"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -11159,31 +10735,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="335"/>
-      <c r="V27" s="335"/>
-      <c r="W27" s="335"/>
-      <c r="X27" s="335"/>
-      <c r="Y27" s="335"/>
-      <c r="Z27" s="335"/>
-      <c r="AA27" s="335"/>
-      <c r="AB27" s="335"/>
-      <c r="AC27" s="335"/>
-      <c r="AD27" s="335"/>
-      <c r="AE27" s="335"/>
-      <c r="AF27" s="335"/>
-      <c r="AG27" s="335"/>
-      <c r="AH27" s="335"/>
+      <c r="U27" s="350"/>
+      <c r="V27" s="350"/>
+      <c r="W27" s="350"/>
+      <c r="X27" s="350"/>
+      <c r="Y27" s="350"/>
+      <c r="Z27" s="350"/>
+      <c r="AA27" s="350"/>
+      <c r="AB27" s="350"/>
+      <c r="AC27" s="350"/>
+      <c r="AD27" s="350"/>
+      <c r="AE27" s="350"/>
+      <c r="AF27" s="350"/>
+      <c r="AG27" s="350"/>
+      <c r="AH27" s="350"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="326" t="s">
+      <c r="A28" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="327"/>
-      <c r="C28" s="327"/>
-      <c r="D28" s="328"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="325"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -11329,21 +10905,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11358,23 +10936,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12033,7 +11609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12049,158 +11625,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="258" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="323">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="359">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="324"/>
-      <c r="AI1" s="325"/>
+      <c r="AH1" s="360"/>
+      <c r="AI1" s="361"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="258" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="323" t="str">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="325"/>
+      <c r="AH2" s="360"/>
+      <c r="AI2" s="361"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="258" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="323" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="324"/>
-      <c r="AI3" s="325"/>
+      <c r="AH3" s="360"/>
+      <c r="AI3" s="361"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="91"/>
@@ -12360,463 +11936,463 @@
       <c r="AU7" s="74"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="428" t="s">
+      <c r="A8" s="380" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="378"/>
-      <c r="C8" s="378"/>
-      <c r="D8" s="378"/>
-      <c r="E8" s="378"/>
-      <c r="F8" s="378"/>
-      <c r="G8" s="378"/>
-      <c r="H8" s="378"/>
-      <c r="I8" s="378"/>
-      <c r="J8" s="378"/>
-      <c r="K8" s="378"/>
-      <c r="L8" s="378"/>
-      <c r="M8" s="378"/>
-      <c r="N8" s="378"/>
-      <c r="O8" s="378"/>
-      <c r="P8" s="378"/>
-      <c r="Q8" s="378"/>
-      <c r="R8" s="378"/>
-      <c r="S8" s="378"/>
-      <c r="T8" s="378"/>
-      <c r="U8" s="378"/>
-      <c r="V8" s="378"/>
-      <c r="W8" s="378"/>
-      <c r="X8" s="378"/>
-      <c r="Y8" s="378"/>
-      <c r="Z8" s="378"/>
-      <c r="AA8" s="378"/>
-      <c r="AB8" s="429"/>
-      <c r="AC8" s="377" t="s">
+      <c r="B8" s="381"/>
+      <c r="C8" s="381"/>
+      <c r="D8" s="381"/>
+      <c r="E8" s="381"/>
+      <c r="F8" s="381"/>
+      <c r="G8" s="381"/>
+      <c r="H8" s="381"/>
+      <c r="I8" s="381"/>
+      <c r="J8" s="381"/>
+      <c r="K8" s="381"/>
+      <c r="L8" s="381"/>
+      <c r="M8" s="381"/>
+      <c r="N8" s="381"/>
+      <c r="O8" s="381"/>
+      <c r="P8" s="381"/>
+      <c r="Q8" s="381"/>
+      <c r="R8" s="381"/>
+      <c r="S8" s="381"/>
+      <c r="T8" s="381"/>
+      <c r="U8" s="381"/>
+      <c r="V8" s="381"/>
+      <c r="W8" s="381"/>
+      <c r="X8" s="381"/>
+      <c r="Y8" s="381"/>
+      <c r="Z8" s="381"/>
+      <c r="AA8" s="381"/>
+      <c r="AB8" s="382"/>
+      <c r="AC8" s="446" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="378"/>
-      <c r="AE8" s="379"/>
-      <c r="AF8" s="374"/>
-      <c r="AG8" s="375"/>
-      <c r="AH8" s="375"/>
-      <c r="AI8" s="376"/>
+      <c r="AD8" s="381"/>
+      <c r="AE8" s="447"/>
+      <c r="AF8" s="443"/>
+      <c r="AG8" s="444"/>
+      <c r="AH8" s="444"/>
+      <c r="AI8" s="445"/>
     </row>
     <row r="9" spans="1:47" s="238" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="424" t="s">
+      <c r="B9" s="365" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="424" t="s">
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="365" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="425"/>
-      <c r="I9" s="427"/>
-      <c r="J9" s="424" t="s">
+      <c r="H9" s="366"/>
+      <c r="I9" s="367"/>
+      <c r="J9" s="365" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="425"/>
-      <c r="L9" s="425"/>
-      <c r="M9" s="425"/>
-      <c r="N9" s="425"/>
-      <c r="O9" s="425"/>
-      <c r="P9" s="427"/>
-      <c r="Q9" s="442" t="s">
+      <c r="K9" s="366"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="366"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="366"/>
+      <c r="P9" s="367"/>
+      <c r="Q9" s="370" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="444"/>
-      <c r="S9" s="442" t="s">
+      <c r="R9" s="372"/>
+      <c r="S9" s="370" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="443"/>
-      <c r="U9" s="444"/>
-      <c r="V9" s="424" t="s">
+      <c r="T9" s="371"/>
+      <c r="U9" s="372"/>
+      <c r="V9" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="425"/>
-      <c r="X9" s="425"/>
-      <c r="Y9" s="425"/>
-      <c r="Z9" s="425"/>
-      <c r="AA9" s="425"/>
-      <c r="AB9" s="426"/>
-      <c r="AC9" s="436" t="s">
+      <c r="W9" s="366"/>
+      <c r="X9" s="366"/>
+      <c r="Y9" s="366"/>
+      <c r="Z9" s="366"/>
+      <c r="AA9" s="366"/>
+      <c r="AB9" s="379"/>
+      <c r="AC9" s="391" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="437"/>
-      <c r="AE9" s="437"/>
-      <c r="AF9" s="437"/>
-      <c r="AG9" s="437"/>
-      <c r="AH9" s="438" t="s">
+      <c r="AD9" s="392"/>
+      <c r="AE9" s="392"/>
+      <c r="AF9" s="392"/>
+      <c r="AG9" s="392"/>
+      <c r="AH9" s="393" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="438"/>
+      <c r="AI9" s="393"/>
     </row>
     <row r="10" spans="1:47" ht="19.5" customHeight="1">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="387" t="s">
+      <c r="B10" s="430" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="433"/>
-      <c r="H10" s="434"/>
-      <c r="I10" s="435"/>
-      <c r="J10" s="445"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="446"/>
-      <c r="N10" s="446"/>
-      <c r="O10" s="446"/>
-      <c r="P10" s="447"/>
-      <c r="Q10" s="396"/>
-      <c r="R10" s="398"/>
-      <c r="S10" s="396"/>
-      <c r="T10" s="397"/>
-      <c r="U10" s="398"/>
-      <c r="V10" s="439"/>
-      <c r="W10" s="440"/>
-      <c r="X10" s="440"/>
-      <c r="Y10" s="440"/>
-      <c r="Z10" s="440"/>
-      <c r="AA10" s="440"/>
-      <c r="AB10" s="441"/>
-      <c r="AC10" s="421" t="s">
+      <c r="C10" s="431"/>
+      <c r="D10" s="431"/>
+      <c r="E10" s="431"/>
+      <c r="F10" s="432"/>
+      <c r="G10" s="388"/>
+      <c r="H10" s="389"/>
+      <c r="I10" s="390"/>
+      <c r="J10" s="374"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="376"/>
+      <c r="Q10" s="386"/>
+      <c r="R10" s="387"/>
+      <c r="S10" s="386"/>
+      <c r="T10" s="433"/>
+      <c r="U10" s="387"/>
+      <c r="V10" s="394"/>
+      <c r="W10" s="395"/>
+      <c r="X10" s="395"/>
+      <c r="Y10" s="395"/>
+      <c r="Z10" s="395"/>
+      <c r="AA10" s="395"/>
+      <c r="AB10" s="396"/>
+      <c r="AC10" s="425" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="365"/>
-      <c r="AE10" s="366"/>
-      <c r="AF10" s="366"/>
-      <c r="AG10" s="367"/>
-      <c r="AH10" s="385"/>
-      <c r="AI10" s="386"/>
+      <c r="AD10" s="437"/>
+      <c r="AE10" s="438"/>
+      <c r="AF10" s="438"/>
+      <c r="AG10" s="439"/>
+      <c r="AH10" s="428"/>
+      <c r="AI10" s="429"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="390"/>
-      <c r="C11" s="391"/>
-      <c r="D11" s="391"/>
-      <c r="E11" s="391"/>
-      <c r="F11" s="392"/>
-      <c r="G11" s="430"/>
-      <c r="H11" s="431"/>
-      <c r="I11" s="432"/>
-      <c r="J11" s="390"/>
-      <c r="K11" s="391"/>
-      <c r="L11" s="391"/>
-      <c r="M11" s="391"/>
-      <c r="N11" s="391"/>
-      <c r="O11" s="391"/>
-      <c r="P11" s="392"/>
-      <c r="Q11" s="399"/>
-      <c r="R11" s="401"/>
-      <c r="S11" s="399"/>
-      <c r="T11" s="400"/>
-      <c r="U11" s="401"/>
-      <c r="V11" s="382"/>
-      <c r="W11" s="383"/>
-      <c r="X11" s="383"/>
-      <c r="Y11" s="383"/>
-      <c r="Z11" s="383"/>
-      <c r="AA11" s="383"/>
-      <c r="AB11" s="384"/>
-      <c r="AC11" s="422"/>
-      <c r="AD11" s="368"/>
-      <c r="AE11" s="369"/>
-      <c r="AF11" s="369"/>
-      <c r="AG11" s="370"/>
-      <c r="AH11" s="380"/>
-      <c r="AI11" s="381"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="363"/>
+      <c r="F11" s="364"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="384"/>
+      <c r="I11" s="385"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="363"/>
+      <c r="M11" s="363"/>
+      <c r="N11" s="363"/>
+      <c r="O11" s="363"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="368"/>
+      <c r="R11" s="369"/>
+      <c r="S11" s="368"/>
+      <c r="T11" s="373"/>
+      <c r="U11" s="369"/>
+      <c r="V11" s="397"/>
+      <c r="W11" s="398"/>
+      <c r="X11" s="398"/>
+      <c r="Y11" s="398"/>
+      <c r="Z11" s="398"/>
+      <c r="AA11" s="398"/>
+      <c r="AB11" s="399"/>
+      <c r="AC11" s="426"/>
+      <c r="AD11" s="440"/>
+      <c r="AE11" s="441"/>
+      <c r="AF11" s="441"/>
+      <c r="AG11" s="442"/>
+      <c r="AH11" s="377"/>
+      <c r="AI11" s="378"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="390"/>
-      <c r="C12" s="391"/>
-      <c r="D12" s="391"/>
-      <c r="E12" s="391"/>
-      <c r="F12" s="392"/>
-      <c r="G12" s="430"/>
-      <c r="H12" s="431"/>
-      <c r="I12" s="432"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="391"/>
-      <c r="L12" s="391"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="391"/>
-      <c r="O12" s="391"/>
-      <c r="P12" s="392"/>
-      <c r="Q12" s="399"/>
-      <c r="R12" s="401"/>
-      <c r="S12" s="399"/>
-      <c r="T12" s="400"/>
-      <c r="U12" s="401"/>
-      <c r="V12" s="382"/>
-      <c r="W12" s="383"/>
-      <c r="X12" s="383"/>
-      <c r="Y12" s="383"/>
-      <c r="Z12" s="383"/>
-      <c r="AA12" s="383"/>
-      <c r="AB12" s="384"/>
-      <c r="AC12" s="422"/>
-      <c r="AD12" s="371"/>
-      <c r="AE12" s="372"/>
-      <c r="AF12" s="372"/>
-      <c r="AG12" s="373"/>
-      <c r="AH12" s="380"/>
-      <c r="AI12" s="381"/>
+      <c r="B12" s="362"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="364"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="384"/>
+      <c r="I12" s="385"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="363"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="363"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="364"/>
+      <c r="Q12" s="368"/>
+      <c r="R12" s="369"/>
+      <c r="S12" s="368"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="369"/>
+      <c r="V12" s="397"/>
+      <c r="W12" s="398"/>
+      <c r="X12" s="398"/>
+      <c r="Y12" s="398"/>
+      <c r="Z12" s="398"/>
+      <c r="AA12" s="398"/>
+      <c r="AB12" s="399"/>
+      <c r="AC12" s="426"/>
+      <c r="AD12" s="400"/>
+      <c r="AE12" s="401"/>
+      <c r="AF12" s="401"/>
+      <c r="AG12" s="402"/>
+      <c r="AH12" s="377"/>
+      <c r="AI12" s="378"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="390"/>
-      <c r="C13" s="391"/>
-      <c r="D13" s="391"/>
-      <c r="E13" s="391"/>
-      <c r="F13" s="392"/>
-      <c r="G13" s="430"/>
-      <c r="H13" s="431"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="390"/>
-      <c r="K13" s="391"/>
-      <c r="L13" s="391"/>
-      <c r="M13" s="391"/>
-      <c r="N13" s="391"/>
-      <c r="O13" s="391"/>
-      <c r="P13" s="392"/>
-      <c r="Q13" s="399"/>
-      <c r="R13" s="401"/>
-      <c r="S13" s="399"/>
-      <c r="T13" s="400"/>
-      <c r="U13" s="401"/>
-      <c r="V13" s="382"/>
-      <c r="W13" s="383"/>
-      <c r="X13" s="383"/>
-      <c r="Y13" s="383"/>
-      <c r="Z13" s="383"/>
-      <c r="AA13" s="383"/>
-      <c r="AB13" s="384"/>
-      <c r="AC13" s="422"/>
-      <c r="AD13" s="371"/>
-      <c r="AE13" s="372"/>
-      <c r="AF13" s="372"/>
-      <c r="AG13" s="373"/>
-      <c r="AH13" s="380"/>
-      <c r="AI13" s="381"/>
+      <c r="B13" s="362"/>
+      <c r="C13" s="363"/>
+      <c r="D13" s="363"/>
+      <c r="E13" s="363"/>
+      <c r="F13" s="364"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="384"/>
+      <c r="I13" s="385"/>
+      <c r="J13" s="362"/>
+      <c r="K13" s="363"/>
+      <c r="L13" s="363"/>
+      <c r="M13" s="363"/>
+      <c r="N13" s="363"/>
+      <c r="O13" s="363"/>
+      <c r="P13" s="364"/>
+      <c r="Q13" s="368"/>
+      <c r="R13" s="369"/>
+      <c r="S13" s="368"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="369"/>
+      <c r="V13" s="397"/>
+      <c r="W13" s="398"/>
+      <c r="X13" s="398"/>
+      <c r="Y13" s="398"/>
+      <c r="Z13" s="398"/>
+      <c r="AA13" s="398"/>
+      <c r="AB13" s="399"/>
+      <c r="AC13" s="426"/>
+      <c r="AD13" s="400"/>
+      <c r="AE13" s="401"/>
+      <c r="AF13" s="401"/>
+      <c r="AG13" s="402"/>
+      <c r="AH13" s="377"/>
+      <c r="AI13" s="378"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="393"/>
-      <c r="C14" s="394"/>
-      <c r="D14" s="394"/>
-      <c r="E14" s="394"/>
-      <c r="F14" s="395"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="391"/>
-      <c r="I14" s="392"/>
-      <c r="J14" s="390"/>
-      <c r="K14" s="391"/>
-      <c r="L14" s="391"/>
-      <c r="M14" s="391"/>
-      <c r="N14" s="391"/>
-      <c r="O14" s="391"/>
-      <c r="P14" s="392"/>
-      <c r="Q14" s="399"/>
-      <c r="R14" s="401"/>
-      <c r="S14" s="399"/>
-      <c r="T14" s="400"/>
-      <c r="U14" s="401"/>
-      <c r="V14" s="382"/>
-      <c r="W14" s="383"/>
-      <c r="X14" s="383"/>
-      <c r="Y14" s="383"/>
-      <c r="Z14" s="383"/>
-      <c r="AA14" s="383"/>
-      <c r="AB14" s="384"/>
-      <c r="AC14" s="422"/>
-      <c r="AD14" s="371"/>
-      <c r="AE14" s="372"/>
-      <c r="AF14" s="372"/>
-      <c r="AG14" s="373"/>
-      <c r="AH14" s="380"/>
-      <c r="AI14" s="381"/>
+      <c r="B14" s="417"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="418"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="362"/>
+      <c r="H14" s="363"/>
+      <c r="I14" s="364"/>
+      <c r="J14" s="362"/>
+      <c r="K14" s="363"/>
+      <c r="L14" s="363"/>
+      <c r="M14" s="363"/>
+      <c r="N14" s="363"/>
+      <c r="O14" s="363"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="368"/>
+      <c r="R14" s="369"/>
+      <c r="S14" s="368"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="369"/>
+      <c r="V14" s="397"/>
+      <c r="W14" s="398"/>
+      <c r="X14" s="398"/>
+      <c r="Y14" s="398"/>
+      <c r="Z14" s="398"/>
+      <c r="AA14" s="398"/>
+      <c r="AB14" s="399"/>
+      <c r="AC14" s="426"/>
+      <c r="AD14" s="400"/>
+      <c r="AE14" s="401"/>
+      <c r="AF14" s="401"/>
+      <c r="AG14" s="402"/>
+      <c r="AH14" s="377"/>
+      <c r="AI14" s="378"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="393"/>
-      <c r="C15" s="394"/>
-      <c r="D15" s="394"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="390"/>
-      <c r="H15" s="391"/>
-      <c r="I15" s="392"/>
-      <c r="J15" s="390"/>
-      <c r="K15" s="391"/>
-      <c r="L15" s="391"/>
-      <c r="M15" s="391"/>
-      <c r="N15" s="391"/>
-      <c r="O15" s="391"/>
-      <c r="P15" s="392"/>
-      <c r="Q15" s="399"/>
-      <c r="R15" s="401"/>
-      <c r="S15" s="399"/>
-      <c r="T15" s="400"/>
-      <c r="U15" s="401"/>
-      <c r="V15" s="382"/>
-      <c r="W15" s="383"/>
-      <c r="X15" s="383"/>
-      <c r="Y15" s="383"/>
-      <c r="Z15" s="383"/>
-      <c r="AA15" s="383"/>
-      <c r="AB15" s="384"/>
-      <c r="AC15" s="422"/>
-      <c r="AD15" s="371"/>
-      <c r="AE15" s="372"/>
-      <c r="AF15" s="372"/>
-      <c r="AG15" s="373"/>
-      <c r="AH15" s="380"/>
-      <c r="AI15" s="381"/>
+      <c r="B15" s="417"/>
+      <c r="C15" s="418"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="362"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="363"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="363"/>
+      <c r="O15" s="363"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="368"/>
+      <c r="R15" s="369"/>
+      <c r="S15" s="368"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="369"/>
+      <c r="V15" s="397"/>
+      <c r="W15" s="398"/>
+      <c r="X15" s="398"/>
+      <c r="Y15" s="398"/>
+      <c r="Z15" s="398"/>
+      <c r="AA15" s="398"/>
+      <c r="AB15" s="399"/>
+      <c r="AC15" s="426"/>
+      <c r="AD15" s="400"/>
+      <c r="AE15" s="401"/>
+      <c r="AF15" s="401"/>
+      <c r="AG15" s="402"/>
+      <c r="AH15" s="377"/>
+      <c r="AI15" s="378"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="393"/>
-      <c r="C16" s="394"/>
-      <c r="D16" s="394"/>
-      <c r="E16" s="394"/>
-      <c r="F16" s="395"/>
-      <c r="G16" s="390"/>
-      <c r="H16" s="391"/>
-      <c r="I16" s="392"/>
-      <c r="J16" s="390"/>
-      <c r="K16" s="391"/>
-      <c r="L16" s="391"/>
-      <c r="M16" s="391"/>
-      <c r="N16" s="391"/>
-      <c r="O16" s="391"/>
-      <c r="P16" s="392"/>
-      <c r="Q16" s="399"/>
-      <c r="R16" s="401"/>
-      <c r="S16" s="399"/>
-      <c r="T16" s="400"/>
-      <c r="U16" s="401"/>
-      <c r="V16" s="382"/>
-      <c r="W16" s="383"/>
-      <c r="X16" s="383"/>
-      <c r="Y16" s="383"/>
-      <c r="Z16" s="383"/>
-      <c r="AA16" s="383"/>
-      <c r="AB16" s="384"/>
-      <c r="AC16" s="422"/>
-      <c r="AD16" s="371"/>
-      <c r="AE16" s="372"/>
-      <c r="AF16" s="372"/>
-      <c r="AG16" s="373"/>
-      <c r="AH16" s="380"/>
-      <c r="AI16" s="381"/>
+      <c r="B16" s="417"/>
+      <c r="C16" s="418"/>
+      <c r="D16" s="418"/>
+      <c r="E16" s="418"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="362"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="362"/>
+      <c r="K16" s="363"/>
+      <c r="L16" s="363"/>
+      <c r="M16" s="363"/>
+      <c r="N16" s="363"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="364"/>
+      <c r="Q16" s="368"/>
+      <c r="R16" s="369"/>
+      <c r="S16" s="368"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="369"/>
+      <c r="V16" s="397"/>
+      <c r="W16" s="398"/>
+      <c r="X16" s="398"/>
+      <c r="Y16" s="398"/>
+      <c r="Z16" s="398"/>
+      <c r="AA16" s="398"/>
+      <c r="AB16" s="399"/>
+      <c r="AC16" s="426"/>
+      <c r="AD16" s="400"/>
+      <c r="AE16" s="401"/>
+      <c r="AF16" s="401"/>
+      <c r="AG16" s="402"/>
+      <c r="AH16" s="377"/>
+      <c r="AI16" s="378"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="393"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="395"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="391"/>
-      <c r="I17" s="392"/>
-      <c r="J17" s="390"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="391"/>
-      <c r="M17" s="391"/>
-      <c r="N17" s="391"/>
-      <c r="O17" s="391"/>
-      <c r="P17" s="392"/>
-      <c r="Q17" s="399"/>
-      <c r="R17" s="401"/>
-      <c r="S17" s="399"/>
-      <c r="T17" s="400"/>
-      <c r="U17" s="401"/>
-      <c r="V17" s="382"/>
-      <c r="W17" s="383"/>
-      <c r="X17" s="383"/>
-      <c r="Y17" s="383"/>
-      <c r="Z17" s="383"/>
-      <c r="AA17" s="383"/>
-      <c r="AB17" s="384"/>
-      <c r="AC17" s="422"/>
-      <c r="AD17" s="371"/>
-      <c r="AE17" s="372"/>
-      <c r="AF17" s="372"/>
-      <c r="AG17" s="373"/>
-      <c r="AH17" s="380"/>
-      <c r="AI17" s="381"/>
+      <c r="B17" s="417"/>
+      <c r="C17" s="418"/>
+      <c r="D17" s="418"/>
+      <c r="E17" s="418"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="362"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="363"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="363"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="364"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="369"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="373"/>
+      <c r="U17" s="369"/>
+      <c r="V17" s="397"/>
+      <c r="W17" s="398"/>
+      <c r="X17" s="398"/>
+      <c r="Y17" s="398"/>
+      <c r="Z17" s="398"/>
+      <c r="AA17" s="398"/>
+      <c r="AB17" s="399"/>
+      <c r="AC17" s="426"/>
+      <c r="AD17" s="400"/>
+      <c r="AE17" s="401"/>
+      <c r="AF17" s="401"/>
+      <c r="AG17" s="402"/>
+      <c r="AH17" s="377"/>
+      <c r="AI17" s="378"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="416"/>
-      <c r="C18" s="417"/>
-      <c r="D18" s="417"/>
-      <c r="E18" s="417"/>
-      <c r="F18" s="418"/>
-      <c r="G18" s="413"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="415"/>
-      <c r="J18" s="413"/>
-      <c r="K18" s="414"/>
-      <c r="L18" s="414"/>
-      <c r="M18" s="414"/>
-      <c r="N18" s="414"/>
-      <c r="O18" s="414"/>
-      <c r="P18" s="415"/>
-      <c r="Q18" s="410"/>
-      <c r="R18" s="412"/>
-      <c r="S18" s="410"/>
-      <c r="T18" s="411"/>
-      <c r="U18" s="412"/>
-      <c r="V18" s="405"/>
-      <c r="W18" s="406"/>
-      <c r="X18" s="406"/>
-      <c r="Y18" s="406"/>
-      <c r="Z18" s="406"/>
-      <c r="AA18" s="406"/>
-      <c r="AB18" s="407"/>
-      <c r="AC18" s="423"/>
-      <c r="AD18" s="362"/>
-      <c r="AE18" s="363"/>
-      <c r="AF18" s="363"/>
-      <c r="AG18" s="364"/>
-      <c r="AH18" s="419"/>
-      <c r="AI18" s="420"/>
+      <c r="B18" s="420"/>
+      <c r="C18" s="421"/>
+      <c r="D18" s="421"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="422"/>
+      <c r="G18" s="414"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="416"/>
+      <c r="J18" s="414"/>
+      <c r="K18" s="415"/>
+      <c r="L18" s="415"/>
+      <c r="M18" s="415"/>
+      <c r="N18" s="415"/>
+      <c r="O18" s="415"/>
+      <c r="P18" s="416"/>
+      <c r="Q18" s="411"/>
+      <c r="R18" s="413"/>
+      <c r="S18" s="411"/>
+      <c r="T18" s="412"/>
+      <c r="U18" s="413"/>
+      <c r="V18" s="406"/>
+      <c r="W18" s="407"/>
+      <c r="X18" s="407"/>
+      <c r="Y18" s="407"/>
+      <c r="Z18" s="407"/>
+      <c r="AA18" s="407"/>
+      <c r="AB18" s="408"/>
+      <c r="AC18" s="427"/>
+      <c r="AD18" s="434"/>
+      <c r="AE18" s="435"/>
+      <c r="AF18" s="435"/>
+      <c r="AG18" s="436"/>
+      <c r="AH18" s="423"/>
+      <c r="AI18" s="424"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="408"/>
-      <c r="B19" s="409"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="409"/>
-      <c r="E19" s="409"/>
-      <c r="F19" s="409"/>
+      <c r="A19" s="409"/>
+      <c r="B19" s="410"/>
+      <c r="C19" s="410"/>
+      <c r="D19" s="410"/>
+      <c r="E19" s="410"/>
+      <c r="F19" s="410"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -12840,23 +12416,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="404"/>
-      <c r="AE19" s="404"/>
-      <c r="AF19" s="404"/>
-      <c r="AG19" s="404"/>
-      <c r="AH19" s="404"/>
+      <c r="AD19" s="405"/>
+      <c r="AE19" s="405"/>
+      <c r="AF19" s="405"/>
+      <c r="AG19" s="405"/>
+      <c r="AH19" s="405"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="402" t="s">
+      <c r="A20" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="403"/>
-      <c r="C20" s="403"/>
-      <c r="D20" s="403"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="404"/>
+      <c r="E20" s="404"/>
+      <c r="F20" s="404"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -13403,20 +12979,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -13441,72 +13069,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -13523,12 +13099,11 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13546,158 +13121,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="258" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="323">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="359">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="324"/>
-      <c r="AI1" s="325"/>
+      <c r="AH1" s="360"/>
+      <c r="AI1" s="361"/>
     </row>
     <row r="2" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="258" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="323" t="str">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="325"/>
+      <c r="AH2" s="360"/>
+      <c r="AI2" s="361"/>
     </row>
     <row r="3" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="258" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="323" t="str">
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="359" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="324"/>
-      <c r="AI3" s="325"/>
+      <c r="AH3" s="360"/>
+      <c r="AI3" s="361"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1"/>
     <row r="5" spans="1:96" ht="15" customHeight="1">
@@ -13743,60 +13318,60 @@
       <c r="A7" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="460" t="s">
+      <c r="B7" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="460" t="s">
+      <c r="C7" s="467"/>
+      <c r="D7" s="467"/>
+      <c r="E7" s="467"/>
+      <c r="F7" s="468"/>
+      <c r="G7" s="466" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
-      <c r="K7" s="462"/>
-      <c r="L7" s="460" t="s">
+      <c r="H7" s="467"/>
+      <c r="I7" s="467"/>
+      <c r="J7" s="467"/>
+      <c r="K7" s="468"/>
+      <c r="L7" s="466" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="461"/>
-      <c r="N7" s="461"/>
-      <c r="O7" s="461"/>
-      <c r="P7" s="462"/>
+      <c r="M7" s="467"/>
+      <c r="N7" s="467"/>
+      <c r="O7" s="467"/>
+      <c r="P7" s="468"/>
       <c r="Q7" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="469" t="s">
+      <c r="R7" s="463" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="469"/>
-      <c r="T7" s="469"/>
-      <c r="U7" s="469"/>
-      <c r="V7" s="470" t="s">
+      <c r="S7" s="463"/>
+      <c r="T7" s="463"/>
+      <c r="U7" s="463"/>
+      <c r="V7" s="464" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="471"/>
-      <c r="X7" s="470" t="s">
+      <c r="W7" s="465"/>
+      <c r="X7" s="464" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="471"/>
-      <c r="Z7" s="460" t="s">
+      <c r="Y7" s="465"/>
+      <c r="Z7" s="466" t="s">
         <v>59</v>
       </c>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="462"/>
-      <c r="AC7" s="460" t="s">
+      <c r="AA7" s="467"/>
+      <c r="AB7" s="468"/>
+      <c r="AC7" s="466" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="461"/>
-      <c r="AH7" s="461"/>
-      <c r="AI7" s="461"/>
-      <c r="AJ7" s="461"/>
-      <c r="AK7" s="462"/>
+      <c r="AD7" s="467"/>
+      <c r="AE7" s="467"/>
+      <c r="AF7" s="467"/>
+      <c r="AG7" s="467"/>
+      <c r="AH7" s="467"/>
+      <c r="AI7" s="467"/>
+      <c r="AJ7" s="467"/>
+      <c r="AK7" s="468"/>
       <c r="AL7" s="75"/>
       <c r="AM7" s="75"/>
       <c r="AN7" s="75"/>
@@ -13856,21 +13431,21 @@
       <c r="A8" s="168">
         <v>1</v>
       </c>
-      <c r="B8" s="456" t="s">
+      <c r="B8" s="453" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="451"/>
       <c r="D8" s="451"/>
       <c r="E8" s="451"/>
       <c r="F8" s="452"/>
-      <c r="G8" s="453" t="s">
+      <c r="G8" s="454" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="454"/>
-      <c r="I8" s="454"/>
-      <c r="J8" s="454"/>
-      <c r="K8" s="455"/>
-      <c r="L8" s="456"/>
+      <c r="H8" s="455"/>
+      <c r="I8" s="455"/>
+      <c r="J8" s="455"/>
+      <c r="K8" s="456"/>
+      <c r="L8" s="453"/>
       <c r="M8" s="451"/>
       <c r="N8" s="451"/>
       <c r="O8" s="451"/>
@@ -13880,12 +13455,12 @@
       <c r="S8" s="451"/>
       <c r="T8" s="451"/>
       <c r="U8" s="452"/>
-      <c r="V8" s="472" t="s">
+      <c r="V8" s="457" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="449"/>
-      <c r="X8" s="463"/>
-      <c r="Y8" s="464"/>
+      <c r="W8" s="458"/>
+      <c r="X8" s="448"/>
+      <c r="Y8" s="449"/>
       <c r="Z8" s="450"/>
       <c r="AA8" s="451"/>
       <c r="AB8" s="452"/>
@@ -13956,21 +13531,21 @@
       <c r="A9" s="168">
         <v>2</v>
       </c>
-      <c r="B9" s="456" t="s">
+      <c r="B9" s="453" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="451"/>
       <c r="D9" s="451"/>
       <c r="E9" s="451"/>
       <c r="F9" s="452"/>
-      <c r="G9" s="453" t="s">
+      <c r="G9" s="454" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="454"/>
-      <c r="I9" s="454"/>
-      <c r="J9" s="454"/>
-      <c r="K9" s="455"/>
-      <c r="L9" s="456" t="s">
+      <c r="H9" s="455"/>
+      <c r="I9" s="455"/>
+      <c r="J9" s="455"/>
+      <c r="K9" s="456"/>
+      <c r="L9" s="453" t="s">
         <v>99</v>
       </c>
       <c r="M9" s="451"/>
@@ -13986,12 +13561,12 @@
       <c r="S9" s="451"/>
       <c r="T9" s="451"/>
       <c r="U9" s="452"/>
-      <c r="V9" s="448">
+      <c r="V9" s="472">
         <v>1</v>
       </c>
-      <c r="W9" s="449"/>
-      <c r="X9" s="463"/>
-      <c r="Y9" s="464"/>
+      <c r="W9" s="458"/>
+      <c r="X9" s="448"/>
+      <c r="Y9" s="449"/>
       <c r="Z9" s="450"/>
       <c r="AA9" s="451"/>
       <c r="AB9" s="452"/>
@@ -14062,21 +13637,21 @@
       <c r="A10" s="168">
         <v>3</v>
       </c>
-      <c r="B10" s="456" t="s">
+      <c r="B10" s="453" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="451"/>
       <c r="D10" s="451"/>
       <c r="E10" s="451"/>
       <c r="F10" s="452"/>
-      <c r="G10" s="453" t="s">
+      <c r="G10" s="454" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="454"/>
-      <c r="I10" s="454"/>
-      <c r="J10" s="454"/>
-      <c r="K10" s="455"/>
-      <c r="L10" s="456" t="s">
+      <c r="H10" s="455"/>
+      <c r="I10" s="455"/>
+      <c r="J10" s="455"/>
+      <c r="K10" s="456"/>
+      <c r="L10" s="453" t="s">
         <v>100</v>
       </c>
       <c r="M10" s="451"/>
@@ -14092,12 +13667,12 @@
       <c r="S10" s="451"/>
       <c r="T10" s="451"/>
       <c r="U10" s="452"/>
-      <c r="V10" s="448">
+      <c r="V10" s="472">
         <v>1</v>
       </c>
-      <c r="W10" s="449"/>
-      <c r="X10" s="457"/>
-      <c r="Y10" s="459"/>
+      <c r="W10" s="458"/>
+      <c r="X10" s="469"/>
+      <c r="Y10" s="471"/>
       <c r="Z10" s="450"/>
       <c r="AA10" s="451"/>
       <c r="AB10" s="452"/>
@@ -14168,21 +13743,21 @@
       <c r="A11" s="168">
         <v>4</v>
       </c>
-      <c r="B11" s="456" t="s">
+      <c r="B11" s="453" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="451"/>
       <c r="D11" s="451"/>
       <c r="E11" s="451"/>
       <c r="F11" s="452"/>
-      <c r="G11" s="453" t="s">
+      <c r="G11" s="454" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="454"/>
-      <c r="I11" s="454"/>
-      <c r="J11" s="454"/>
-      <c r="K11" s="455"/>
-      <c r="L11" s="456" t="s">
+      <c r="H11" s="455"/>
+      <c r="I11" s="455"/>
+      <c r="J11" s="455"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="453" t="s">
         <v>101</v>
       </c>
       <c r="M11" s="451"/>
@@ -14198,10 +13773,10 @@
       <c r="S11" s="451"/>
       <c r="T11" s="451"/>
       <c r="U11" s="452"/>
-      <c r="V11" s="448">
+      <c r="V11" s="472">
         <v>1</v>
       </c>
-      <c r="W11" s="449"/>
+      <c r="W11" s="458"/>
       <c r="X11" s="212"/>
       <c r="Y11" s="213"/>
       <c r="Z11" s="62"/>
@@ -14277,23 +13852,23 @@
       <c r="D12" s="451"/>
       <c r="E12" s="451"/>
       <c r="F12" s="452"/>
-      <c r="G12" s="457"/>
-      <c r="H12" s="458"/>
-      <c r="I12" s="458"/>
-      <c r="J12" s="458"/>
-      <c r="K12" s="459"/>
-      <c r="L12" s="457"/>
-      <c r="M12" s="458"/>
-      <c r="N12" s="458"/>
-      <c r="O12" s="458"/>
-      <c r="P12" s="459"/>
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="470"/>
+      <c r="J12" s="470"/>
+      <c r="K12" s="471"/>
+      <c r="L12" s="469"/>
+      <c r="M12" s="470"/>
+      <c r="N12" s="470"/>
+      <c r="O12" s="470"/>
+      <c r="P12" s="471"/>
       <c r="Q12" s="211"/>
       <c r="R12" s="450"/>
       <c r="S12" s="451"/>
       <c r="T12" s="451"/>
       <c r="U12" s="452"/>
-      <c r="V12" s="448"/>
-      <c r="W12" s="449"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="458"/>
       <c r="X12" s="212"/>
       <c r="Y12" s="213"/>
       <c r="Z12" s="62"/>
@@ -14465,47 +14040,47 @@
       <c r="CR14" s="82"/>
     </row>
     <row r="15" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="465" t="s">
+      <c r="A15" s="459" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="465"/>
-      <c r="C15" s="465"/>
-      <c r="D15" s="465"/>
-      <c r="E15" s="465"/>
-      <c r="F15" s="465"/>
-      <c r="G15" s="465"/>
-      <c r="H15" s="465"/>
-      <c r="I15" s="465"/>
-      <c r="J15" s="465"/>
-      <c r="K15" s="465"/>
-      <c r="L15" s="465"/>
-      <c r="M15" s="465"/>
-      <c r="N15" s="465"/>
-      <c r="O15" s="465"/>
-      <c r="P15" s="465"/>
-      <c r="Q15" s="465"/>
-      <c r="R15" s="465"/>
-      <c r="S15" s="465"/>
-      <c r="T15" s="465"/>
-      <c r="U15" s="465"/>
-      <c r="V15" s="465"/>
-      <c r="W15" s="465"/>
-      <c r="X15" s="465"/>
-      <c r="Y15" s="466" t="s">
+      <c r="B15" s="459"/>
+      <c r="C15" s="459"/>
+      <c r="D15" s="459"/>
+      <c r="E15" s="459"/>
+      <c r="F15" s="459"/>
+      <c r="G15" s="459"/>
+      <c r="H15" s="459"/>
+      <c r="I15" s="459"/>
+      <c r="J15" s="459"/>
+      <c r="K15" s="459"/>
+      <c r="L15" s="459"/>
+      <c r="M15" s="459"/>
+      <c r="N15" s="459"/>
+      <c r="O15" s="459"/>
+      <c r="P15" s="459"/>
+      <c r="Q15" s="459"/>
+      <c r="R15" s="459"/>
+      <c r="S15" s="459"/>
+      <c r="T15" s="459"/>
+      <c r="U15" s="459"/>
+      <c r="V15" s="459"/>
+      <c r="W15" s="459"/>
+      <c r="X15" s="459"/>
+      <c r="Y15" s="460" t="s">
         <v>79</v>
       </c>
-      <c r="Z15" s="467"/>
-      <c r="AA15" s="467"/>
-      <c r="AB15" s="467"/>
-      <c r="AC15" s="467"/>
-      <c r="AD15" s="467"/>
-      <c r="AE15" s="467"/>
-      <c r="AF15" s="467"/>
-      <c r="AG15" s="467"/>
-      <c r="AH15" s="467"/>
-      <c r="AI15" s="467"/>
-      <c r="AJ15" s="467"/>
-      <c r="AK15" s="468"/>
+      <c r="Z15" s="461"/>
+      <c r="AA15" s="461"/>
+      <c r="AB15" s="461"/>
+      <c r="AC15" s="461"/>
+      <c r="AD15" s="461"/>
+      <c r="AE15" s="461"/>
+      <c r="AF15" s="461"/>
+      <c r="AG15" s="461"/>
+      <c r="AH15" s="461"/>
+      <c r="AI15" s="461"/>
+      <c r="AJ15" s="461"/>
+      <c r="AK15" s="462"/>
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1">
       <c r="A16" s="223"/>
@@ -15152,14 +14727,43 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="R7:U7"/>
@@ -15173,46 +14777,17 @@
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
@@ -15230,7 +14805,6 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
